--- a/src/services/api/src/storage/exportable/templates/2023-Graduation.xlsx
+++ b/src/services/api/src/storage/exportable/templates/2023-Graduation.xlsx
@@ -1625,7 +1625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1840,7 +1840,7 @@
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1924,6 +1924,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3381,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AA43" sqref="AA43:AG43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3459,7 +3463,7 @@
       <c r="AE1" s="94"/>
       <c r="AF1" s="94"/>
       <c r="AG1" s="94"/>
-      <c r="AH1" s="101" t="s">
+      <c r="AH1" s="102" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3487,10 +3491,10 @@
       <c r="S2" s="66"/>
       <c r="T2" s="66"/>
       <c r="U2" s="66"/>
-      <c r="V2" s="102" t="s">
+      <c r="V2" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="102"/>
+      <c r="W2" s="103"/>
       <c r="X2" s="68" t="s">
         <v>93</v>
       </c>
@@ -3503,7 +3507,7 @@
       <c r="AE2" s="94"/>
       <c r="AF2" s="94"/>
       <c r="AG2" s="94"/>
-      <c r="AH2" s="101"/>
+      <c r="AH2" s="102"/>
     </row>
     <row r="3" spans="1:34" s="8" customFormat="1" ht="14.25" customHeight="1">
       <c r="A3" s="90"/>
@@ -3511,10 +3515,10 @@
       <c r="C3" s="90"/>
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
       <c r="J3" s="91" t="s">
         <v>94</v>
       </c>
@@ -3546,10 +3550,10 @@
       <c r="AB3" s="95"/>
       <c r="AC3" s="95"/>
       <c r="AD3" s="95"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="101" t="s">
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="102" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3559,10 +3563,10 @@
       <c r="C4" s="90"/>
       <c r="D4" s="90"/>
       <c r="E4" s="90"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="91"/>
       <c r="K4" s="66" t="s">
         <v>1</v>
@@ -3590,10 +3594,10 @@
       <c r="AB4" s="95"/>
       <c r="AC4" s="95"/>
       <c r="AD4" s="95"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="101"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="102"/>
     </row>
     <row r="5" spans="1:34" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="90"/>
@@ -3637,7 +3641,7 @@
       <c r="AE5" s="94"/>
       <c r="AF5" s="94"/>
       <c r="AG5" s="94"/>
-      <c r="AH5" s="101" t="s">
+      <c r="AH5" s="102" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3681,7 +3685,7 @@
       <c r="AE6" s="94"/>
       <c r="AF6" s="94"/>
       <c r="AG6" s="94"/>
-      <c r="AH6" s="101"/>
+      <c r="AH6" s="102"/>
     </row>
     <row r="7" spans="1:34" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="90"/>
@@ -3725,20 +3729,20 @@
       <c r="AE7" s="94"/>
       <c r="AF7" s="94"/>
       <c r="AG7" s="94"/>
-      <c r="AH7" s="101" t="s">
+      <c r="AH7" s="102" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:34" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
       <c r="J8" s="68" t="s">
         <v>110</v>
       </c>
@@ -3771,18 +3775,18 @@
       <c r="AE8" s="94"/>
       <c r="AF8" s="94"/>
       <c r="AG8" s="94"/>
-      <c r="AH8" s="101"/>
+      <c r="AH8" s="102"/>
     </row>
     <row r="9" spans="1:34" s="8" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
       <c r="J9" s="68"/>
       <c r="K9" s="92" t="s">
         <v>144</v>
@@ -3854,10 +3858,10 @@
       <c r="Z10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="71"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="97"/>
       <c r="AE10" s="87"/>
       <c r="AF10" s="87"/>
       <c r="AG10" s="87"/>
@@ -3866,31 +3870,31 @@
       </c>
     </row>
     <row r="11" spans="1:34" s="8" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
       <c r="J11" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="99" t="s">
+      <c r="K11" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="100"/>
       <c r="V11" s="79"/>
       <c r="W11" s="79"/>
       <c r="X11" s="79"/>
@@ -4103,7 +4107,7 @@
       <c r="E15" s="61"/>
       <c r="F15" s="61"/>
       <c r="G15" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15" s="75">
         <v>31</v>
@@ -4123,7 +4127,7 @@
       <c r="O15" s="61"/>
       <c r="P15" s="61"/>
       <c r="Q15" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R15" s="47">
         <v>21</v>
@@ -4141,7 +4145,7 @@
       <c r="W15" s="61"/>
       <c r="X15" s="61"/>
       <c r="Y15" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="47">
         <v>11</v>
@@ -4159,7 +4163,7 @@
       <c r="AE15" s="61"/>
       <c r="AF15" s="61"/>
       <c r="AG15" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="47">
         <v>1</v>
@@ -4179,7 +4183,7 @@
       <c r="E16" s="61"/>
       <c r="F16" s="61"/>
       <c r="G16" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16" s="75">
         <v>32</v>
@@ -4199,7 +4203,7 @@
       <c r="O16" s="61"/>
       <c r="P16" s="61"/>
       <c r="Q16" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R16" s="47">
         <v>22</v>
@@ -4217,7 +4221,7 @@
       <c r="W16" s="61"/>
       <c r="X16" s="61"/>
       <c r="Y16" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="47">
         <v>12</v>
@@ -4235,7 +4239,7 @@
       <c r="AE16" s="61"/>
       <c r="AF16" s="61"/>
       <c r="AG16" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="47">
         <v>2</v>
@@ -4255,7 +4259,7 @@
       <c r="E17" s="61"/>
       <c r="F17" s="61"/>
       <c r="G17" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" s="75">
         <v>33</v>
@@ -4275,7 +4279,7 @@
       <c r="O17" s="61"/>
       <c r="P17" s="61"/>
       <c r="Q17" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R17" s="47">
         <v>23</v>
@@ -4293,7 +4297,7 @@
       <c r="W17" s="61"/>
       <c r="X17" s="61"/>
       <c r="Y17" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="47">
         <v>13</v>
@@ -4311,7 +4315,7 @@
       <c r="AE17" s="61"/>
       <c r="AF17" s="61"/>
       <c r="AG17" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="47">
         <v>3</v>
@@ -4331,7 +4335,7 @@
       <c r="E18" s="61"/>
       <c r="F18" s="61"/>
       <c r="G18" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18" s="75">
         <v>34</v>
@@ -4351,7 +4355,7 @@
       <c r="O18" s="61"/>
       <c r="P18" s="61"/>
       <c r="Q18" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R18" s="47">
         <v>24</v>
@@ -4369,7 +4373,7 @@
       <c r="W18" s="61"/>
       <c r="X18" s="61"/>
       <c r="Y18" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="47">
         <v>14</v>
@@ -4387,7 +4391,7 @@
       <c r="AE18" s="61"/>
       <c r="AF18" s="61"/>
       <c r="AG18" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="47">
         <v>4</v>
@@ -4407,7 +4411,7 @@
       <c r="E19" s="61"/>
       <c r="F19" s="61"/>
       <c r="G19" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19" s="75">
         <v>35</v>
@@ -4427,7 +4431,7 @@
       <c r="O19" s="61"/>
       <c r="P19" s="61"/>
       <c r="Q19" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R19" s="47">
         <v>25</v>
@@ -4445,7 +4449,7 @@
       <c r="W19" s="61"/>
       <c r="X19" s="61"/>
       <c r="Y19" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="47">
         <v>15</v>
@@ -4463,7 +4467,7 @@
       <c r="AE19" s="61"/>
       <c r="AF19" s="61"/>
       <c r="AG19" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="47">
         <v>5</v>
@@ -4483,7 +4487,7 @@
       <c r="E20" s="61"/>
       <c r="F20" s="61"/>
       <c r="G20" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20" s="75">
         <v>36</v>
@@ -4503,7 +4507,7 @@
       <c r="O20" s="61"/>
       <c r="P20" s="61"/>
       <c r="Q20" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R20" s="47">
         <v>26</v>
@@ -4521,7 +4525,7 @@
       <c r="W20" s="61"/>
       <c r="X20" s="61"/>
       <c r="Y20" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="47">
         <v>16</v>
@@ -4539,7 +4543,7 @@
       <c r="AE20" s="61"/>
       <c r="AF20" s="61"/>
       <c r="AG20" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="47">
         <v>6</v>
@@ -4559,7 +4563,7 @@
       <c r="E21" s="61"/>
       <c r="F21" s="61"/>
       <c r="G21" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H21" s="75">
         <v>37</v>
@@ -4579,7 +4583,7 @@
       <c r="O21" s="61"/>
       <c r="P21" s="61"/>
       <c r="Q21" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R21" s="47">
         <v>27</v>
@@ -4597,7 +4601,7 @@
       <c r="W21" s="61"/>
       <c r="X21" s="61"/>
       <c r="Y21" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="47">
         <v>17</v>
@@ -4615,7 +4619,7 @@
       <c r="AE21" s="61"/>
       <c r="AF21" s="61"/>
       <c r="AG21" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="47">
         <v>7</v>
@@ -4635,7 +4639,7 @@
       <c r="E22" s="61"/>
       <c r="F22" s="61"/>
       <c r="G22" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22" s="75">
         <v>38</v>
@@ -4655,7 +4659,7 @@
       <c r="O22" s="61"/>
       <c r="P22" s="61"/>
       <c r="Q22" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R22" s="47">
         <v>28</v>
@@ -4673,7 +4677,7 @@
       <c r="W22" s="61"/>
       <c r="X22" s="61"/>
       <c r="Y22" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="47">
         <v>18</v>
@@ -4691,7 +4695,7 @@
       <c r="AE22" s="61"/>
       <c r="AF22" s="61"/>
       <c r="AG22" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="47">
         <v>8</v>
@@ -4711,7 +4715,7 @@
       <c r="E23" s="61"/>
       <c r="F23" s="61"/>
       <c r="G23" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23" s="75">
         <v>39</v>
@@ -4731,7 +4735,7 @@
       <c r="O23" s="61"/>
       <c r="P23" s="61"/>
       <c r="Q23" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R23" s="47">
         <v>29</v>
@@ -4749,7 +4753,7 @@
       <c r="W23" s="61"/>
       <c r="X23" s="61"/>
       <c r="Y23" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="47">
         <v>19</v>
@@ -4767,7 +4771,7 @@
       <c r="AE23" s="61"/>
       <c r="AF23" s="61"/>
       <c r="AG23" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="47">
         <v>9</v>
@@ -4787,7 +4791,7 @@
       <c r="E24" s="61"/>
       <c r="F24" s="61"/>
       <c r="G24" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H24" s="75">
         <v>40</v>
@@ -4807,7 +4811,7 @@
       <c r="O24" s="61"/>
       <c r="P24" s="61"/>
       <c r="Q24" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R24" s="47">
         <v>30</v>
@@ -4825,7 +4829,7 @@
       <c r="W24" s="61"/>
       <c r="X24" s="61"/>
       <c r="Y24" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="47">
         <v>20</v>
@@ -4843,7 +4847,7 @@
       <c r="AE24" s="61"/>
       <c r="AF24" s="61"/>
       <c r="AG24" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="47">
         <v>10</v>
@@ -4852,7 +4856,7 @@
     <row r="25" spans="1:34" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="76">
         <f>SUM(G15:G24)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B25" s="74"/>
       <c r="C25" s="74"/>
@@ -4867,7 +4871,7 @@
       <c r="J25" s="69"/>
       <c r="K25" s="76">
         <f>SUM(Q15:Q24)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L25" s="74"/>
       <c r="M25" s="74"/>
@@ -4880,7 +4884,7 @@
       </c>
       <c r="S25" s="76">
         <f>SUM(Y15:Y24)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T25" s="74"/>
       <c r="U25" s="74"/>
@@ -4893,7 +4897,7 @@
       </c>
       <c r="AA25" s="76">
         <f>SUM(AG15:AG24)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="74"/>
       <c r="AC25" s="74"/>
@@ -4962,9 +4966,9 @@
       </c>
     </row>
     <row r="27" spans="1:34" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="73">
+      <c r="A27" s="73" t="e">
         <f>A26/A25</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="B27" s="74"/>
       <c r="C27" s="74"/>
@@ -4977,9 +4981,9 @@
       </c>
       <c r="I27" s="69"/>
       <c r="J27" s="69"/>
-      <c r="K27" s="73">
+      <c r="K27" s="73" t="e">
         <f>K26/K25</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L27" s="74"/>
       <c r="M27" s="74"/>
@@ -4990,9 +4994,9 @@
       <c r="R27" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="S27" s="73">
+      <c r="S27" s="73" t="e">
         <f>S26/S25</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T27" s="74"/>
       <c r="U27" s="74"/>
@@ -5003,9 +5007,9 @@
       <c r="Z27" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="AA27" s="73">
+      <c r="AA27" s="73" t="e">
         <f>AA26/AA25</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB27" s="74"/>
       <c r="AC27" s="74"/>
@@ -5018,9 +5022,9 @@
       </c>
     </row>
     <row r="28" spans="1:34" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="72" t="b">
+      <c r="A28" s="72" t="e">
         <f>IF(A27&gt;89,"بريالی",IF(A27&gt;79,"بريالی",IF(A27&gt;69,"بريالی",IF(A27&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="B28" s="69"/>
       <c r="C28" s="69"/>
@@ -5033,9 +5037,9 @@
       </c>
       <c r="I28" s="69"/>
       <c r="J28" s="69"/>
-      <c r="K28" s="72" t="b">
+      <c r="K28" s="72" t="e">
         <f>IF(K27&gt;89,"بريالی",IF(K27&gt;79,"بريالی",IF(K27&gt;69,"بريالی",IF(K27&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L28" s="69"/>
       <c r="M28" s="69"/>
@@ -5046,9 +5050,9 @@
       <c r="R28" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="S28" s="72" t="b">
+      <c r="S28" s="72" t="e">
         <f>IF(S27&gt;89,"بريالی",IF(S27&gt;79,"بريالی",IF(S27&gt;69,"بريالی",IF(S27&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T28" s="69"/>
       <c r="U28" s="69"/>
@@ -5059,9 +5063,9 @@
       <c r="Z28" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="AA28" s="72" t="b">
+      <c r="AA28" s="72" t="e">
         <f>IF(AA27&gt;89,"بريالی",IF(AA27&gt;79,"بريالی",IF(AA27&gt;69,"بريالی",IF(AA27&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB28" s="69"/>
       <c r="AC28" s="69"/>
@@ -5231,7 +5235,7 @@
       <c r="E31" s="61"/>
       <c r="F31" s="61"/>
       <c r="G31" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H31" s="75">
         <v>71</v>
@@ -5251,7 +5255,7 @@
       <c r="O31" s="61"/>
       <c r="P31" s="61"/>
       <c r="Q31" s="14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R31" s="47">
         <v>61</v>
@@ -5269,7 +5273,7 @@
       <c r="W31" s="61"/>
       <c r="X31" s="61"/>
       <c r="Y31" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="47">
         <v>51</v>
@@ -5287,7 +5291,7 @@
       <c r="AE31" s="61"/>
       <c r="AF31" s="61"/>
       <c r="AG31" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="47">
         <v>41</v>
@@ -5307,7 +5311,7 @@
       <c r="E32" s="61"/>
       <c r="F32" s="61"/>
       <c r="G32" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H32" s="75">
         <v>72</v>
@@ -5327,7 +5331,7 @@
       <c r="O32" s="61"/>
       <c r="P32" s="61"/>
       <c r="Q32" s="14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R32" s="47">
         <v>62</v>
@@ -5345,7 +5349,7 @@
       <c r="W32" s="61"/>
       <c r="X32" s="61"/>
       <c r="Y32" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="47">
         <v>52</v>
@@ -5363,7 +5367,7 @@
       <c r="AE32" s="61"/>
       <c r="AF32" s="61"/>
       <c r="AG32" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="47">
         <v>42</v>
@@ -5383,7 +5387,7 @@
       <c r="E33" s="61"/>
       <c r="F33" s="61"/>
       <c r="G33" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H33" s="75">
         <v>73</v>
@@ -5403,7 +5407,7 @@
       <c r="O33" s="61"/>
       <c r="P33" s="61"/>
       <c r="Q33" s="14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R33" s="47">
         <v>63</v>
@@ -5421,7 +5425,7 @@
       <c r="W33" s="61"/>
       <c r="X33" s="61"/>
       <c r="Y33" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="47">
         <v>53</v>
@@ -5439,7 +5443,7 @@
       <c r="AE33" s="61"/>
       <c r="AF33" s="61"/>
       <c r="AG33" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="47">
         <v>43</v>
@@ -5459,7 +5463,7 @@
       <c r="E34" s="61"/>
       <c r="F34" s="61"/>
       <c r="G34" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H34" s="75">
         <v>74</v>
@@ -5479,7 +5483,7 @@
       <c r="O34" s="61"/>
       <c r="P34" s="61"/>
       <c r="Q34" s="14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R34" s="47">
         <v>64</v>
@@ -5497,7 +5501,7 @@
       <c r="W34" s="61"/>
       <c r="X34" s="61"/>
       <c r="Y34" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="47">
         <v>54</v>
@@ -5515,7 +5519,7 @@
       <c r="AE34" s="61"/>
       <c r="AF34" s="61"/>
       <c r="AG34" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="47">
         <v>44</v>
@@ -5535,7 +5539,7 @@
       <c r="E35" s="61"/>
       <c r="F35" s="61"/>
       <c r="G35" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H35" s="75">
         <v>75</v>
@@ -5555,7 +5559,7 @@
       <c r="O35" s="61"/>
       <c r="P35" s="61"/>
       <c r="Q35" s="14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R35" s="47">
         <v>65</v>
@@ -5573,7 +5577,7 @@
       <c r="W35" s="61"/>
       <c r="X35" s="61"/>
       <c r="Y35" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="47">
         <v>55</v>
@@ -5591,7 +5595,7 @@
       <c r="AE35" s="61"/>
       <c r="AF35" s="61"/>
       <c r="AG35" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="47">
         <v>45</v>
@@ -5611,7 +5615,7 @@
       <c r="E36" s="61"/>
       <c r="F36" s="61"/>
       <c r="G36" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H36" s="75">
         <v>76</v>
@@ -5631,7 +5635,7 @@
       <c r="O36" s="61"/>
       <c r="P36" s="61"/>
       <c r="Q36" s="14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R36" s="47">
         <v>66</v>
@@ -5649,7 +5653,7 @@
       <c r="W36" s="61"/>
       <c r="X36" s="61"/>
       <c r="Y36" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="47">
         <v>56</v>
@@ -5667,7 +5671,7 @@
       <c r="AE36" s="61"/>
       <c r="AF36" s="61"/>
       <c r="AG36" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="47">
         <v>46</v>
@@ -5687,7 +5691,7 @@
       <c r="E37" s="61"/>
       <c r="F37" s="61"/>
       <c r="G37" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H37" s="75">
         <v>77</v>
@@ -5707,7 +5711,7 @@
       <c r="O37" s="61"/>
       <c r="P37" s="61"/>
       <c r="Q37" s="14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R37" s="47">
         <v>67</v>
@@ -5725,7 +5729,7 @@
       <c r="W37" s="61"/>
       <c r="X37" s="61"/>
       <c r="Y37" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="47">
         <v>57</v>
@@ -5743,7 +5747,7 @@
       <c r="AE37" s="61"/>
       <c r="AF37" s="61"/>
       <c r="AG37" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="47">
         <v>47</v>
@@ -5763,7 +5767,7 @@
       <c r="E38" s="61"/>
       <c r="F38" s="61"/>
       <c r="G38" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H38" s="75">
         <v>78</v>
@@ -5783,7 +5787,7 @@
       <c r="O38" s="61"/>
       <c r="P38" s="61"/>
       <c r="Q38" s="14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R38" s="47">
         <v>68</v>
@@ -5801,7 +5805,7 @@
       <c r="W38" s="61"/>
       <c r="X38" s="61"/>
       <c r="Y38" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="47">
         <v>58</v>
@@ -5819,7 +5823,7 @@
       <c r="AE38" s="61"/>
       <c r="AF38" s="61"/>
       <c r="AG38" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="47">
         <v>48</v>
@@ -5839,7 +5843,7 @@
       <c r="E39" s="61"/>
       <c r="F39" s="61"/>
       <c r="G39" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H39" s="75">
         <v>79</v>
@@ -5859,7 +5863,7 @@
       <c r="O39" s="61"/>
       <c r="P39" s="61"/>
       <c r="Q39" s="14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R39" s="47">
         <v>69</v>
@@ -5877,7 +5881,7 @@
       <c r="W39" s="61"/>
       <c r="X39" s="61"/>
       <c r="Y39" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="47">
         <v>59</v>
@@ -5895,7 +5899,7 @@
       <c r="AE39" s="61"/>
       <c r="AF39" s="61"/>
       <c r="AG39" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="47">
         <v>49</v>
@@ -5915,7 +5919,7 @@
       <c r="E40" s="61"/>
       <c r="F40" s="61"/>
       <c r="G40" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H40" s="75">
         <v>80</v>
@@ -5935,7 +5939,7 @@
       <c r="O40" s="61"/>
       <c r="P40" s="61"/>
       <c r="Q40" s="14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R40" s="47">
         <v>70</v>
@@ -5953,7 +5957,7 @@
       <c r="W40" s="61"/>
       <c r="X40" s="61"/>
       <c r="Y40" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="47">
         <v>60</v>
@@ -5971,7 +5975,7 @@
       <c r="AE40" s="61"/>
       <c r="AF40" s="61"/>
       <c r="AG40" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH40" s="47">
         <v>50</v>
@@ -5980,7 +5984,7 @@
     <row r="41" spans="1:34" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="76">
         <f>SUM(G31:G40)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="B41" s="74"/>
       <c r="C41" s="74"/>
@@ -5995,7 +5999,7 @@
       <c r="J41" s="69"/>
       <c r="K41" s="76">
         <f>SUM(Q31:Q40)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L41" s="74"/>
       <c r="M41" s="74"/>
@@ -6008,7 +6012,7 @@
       </c>
       <c r="S41" s="76">
         <f>SUM(Y31:Y40)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T41" s="74"/>
       <c r="U41" s="74"/>
@@ -6021,7 +6025,7 @@
       </c>
       <c r="AA41" s="76">
         <f>SUM(AG31:AG40)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="74"/>
       <c r="AC41" s="74"/>
@@ -6090,9 +6094,9 @@
       </c>
     </row>
     <row r="43" spans="1:34" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A43" s="73">
+      <c r="A43" s="73" t="e">
         <f>A42/A41</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="B43" s="74"/>
       <c r="C43" s="74"/>
@@ -6105,9 +6109,9 @@
       </c>
       <c r="I43" s="69"/>
       <c r="J43" s="69"/>
-      <c r="K43" s="73">
+      <c r="K43" s="73" t="e">
         <f>K42/K41</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L43" s="74"/>
       <c r="M43" s="74"/>
@@ -6118,9 +6122,9 @@
       <c r="R43" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="S43" s="73">
+      <c r="S43" s="73" t="e">
         <f>S42/S41</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T43" s="74"/>
       <c r="U43" s="74"/>
@@ -6131,9 +6135,9 @@
       <c r="Z43" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="AA43" s="73">
+      <c r="AA43" s="73" t="e">
         <f>AA42/AA41</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB43" s="74"/>
       <c r="AC43" s="74"/>
@@ -6146,9 +6150,9 @@
       </c>
     </row>
     <row r="44" spans="1:34" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="72" t="b">
+      <c r="A44" s="72" t="e">
         <f>IF(A43&gt;89,"بريالی",IF(A43&gt;79,"بريالی",IF(A43&gt;69,"بريالی",IF(A43&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="B44" s="69"/>
       <c r="C44" s="69"/>
@@ -6161,9 +6165,9 @@
       </c>
       <c r="I44" s="69"/>
       <c r="J44" s="69"/>
-      <c r="K44" s="72" t="b">
+      <c r="K44" s="72" t="e">
         <f>IF(K43&gt;89,"بريالی",IF(K43&gt;79,"بريالی",IF(K43&gt;69,"بريالی",IF(K43&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L44" s="69"/>
       <c r="M44" s="69"/>
@@ -6174,9 +6178,9 @@
       <c r="R44" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="S44" s="72" t="b">
+      <c r="S44" s="72" t="e">
         <f>IF(S43&gt;89,"بريالی",IF(S43&gt;79,"بريالی",IF(S43&gt;69,"بريالی",IF(S43&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T44" s="69"/>
       <c r="U44" s="69"/>
@@ -6187,9 +6191,9 @@
       <c r="Z44" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="AA44" s="72" t="b">
+      <c r="AA44" s="72" t="e">
         <f>IF(AA43&gt;89,"بريالی",IF(AA43&gt;79,"بريالی",IF(AA43&gt;69,"بريالی",IF(AA43&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB44" s="69"/>
       <c r="AC44" s="69"/>
@@ -6202,9 +6206,9 @@
       </c>
     </row>
     <row r="45" spans="1:34" s="8" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A45" s="83">
+      <c r="A45" s="83" t="e">
         <f>AA45/S45</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="B45" s="83"/>
       <c r="C45" s="82"/>
@@ -6227,7 +6231,7 @@
       </c>
       <c r="S45" s="81">
         <f>SUM(AA25,S25,K25,A25,AA41,S41,K41,A41)</f>
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="T45" s="81"/>
       <c r="U45" s="82"/>
@@ -6627,229 +6631,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
+      <c r="A1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
     </row>
     <row r="2" spans="1:18" s="44" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
     </row>
     <row r="3" spans="1:18" s="44" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
     </row>
     <row r="4" spans="1:18" s="44" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="106" t="str">
+      <c r="B5" s="114"/>
+      <c r="C5" s="107" t="str">
         <f>UPPER(Graduation!AA1)</f>
         <v/>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="107" t="s">
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="110" t="str">
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="111" t="str">
         <f>Graduation!K8</f>
         <v>EDUCATION FACULTY</v>
       </c>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="106" t="str">
+      <c r="B6" s="114"/>
+      <c r="C6" s="107" t="str">
         <f>UPPER(Graduation!AA3)</f>
         <v/>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="107" t="s">
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110" t="str">
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="111" t="str">
         <f>Graduation!K10</f>
         <v>BIOLOGY DEPARTMENT</v>
       </c>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
     </row>
     <row r="7" spans="1:18" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="106" t="str">
+      <c r="B7" s="114"/>
+      <c r="C7" s="107" t="str">
         <f>UPPER(Graduation!AA5)</f>
         <v/>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="107" t="s">
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="110">
-        <v>0</v>
-      </c>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="111">
+        <v>0</v>
+      </c>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="129" t="s">
+      <c r="B8" s="114"/>
+      <c r="C8" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="107" t="s">
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110" t="s">
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
     </row>
     <row r="9" spans="1:18" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="133">
+      <c r="B9" s="114"/>
+      <c r="C9" s="134">
         <f>Graduation!AA10</f>
         <v>0</v>
       </c>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="107" t="s">
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="110"/>
       <c r="L9" s="62" t="s">
         <v>201</v>
       </c>
@@ -6860,116 +6864,116 @@
         <v>191</v>
       </c>
       <c r="O9" s="65"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="129">
+      <c r="B10" s="114"/>
+      <c r="C10" s="130">
         <f>Graduation!V4+621</f>
         <v>2019</v>
       </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="107" t="s">
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="130">
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="131">
         <v>2023</v>
       </c>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A11" s="114"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="116"/>
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="123" t="s">
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="124"/>
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="127"/>
       <c r="G14" s="27" t="s">
         <v>21</v>
       </c>
@@ -6982,13 +6986,13 @@
       <c r="J14" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="127" t="s">
+      <c r="K14" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
       <c r="P14" s="27" t="s">
         <v>21</v>
       </c>
@@ -7001,17 +7005,17 @@
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="10.5" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="116">
+      <c r="B15" s="117">
         <f>Graduation!AH15</f>
         <v>1</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
       <c r="G15" s="3">
         <f>Graduation!AG15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <f>MAX(Graduation!AC15:AF15)</f>
@@ -7022,17 +7026,17 @@
         <v>0</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="119">
+      <c r="K15" s="120">
         <f>Graduation!Z15</f>
         <v>11</v>
       </c>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
       <c r="P15" s="3">
         <f>Graduation!Y15</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <f>MAX(Graduation!U15:X15)</f>
@@ -7045,17 +7049,17 @@
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="10.5" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="116">
+      <c r="B16" s="117">
         <f>Graduation!AH16</f>
         <v>2</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
       <c r="G16" s="3">
         <f>Graduation!AG16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <f>MAX(Graduation!AC16:AF16)</f>
@@ -7066,17 +7070,17 @@
         <v>0</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="119">
+      <c r="K16" s="120">
         <f>Graduation!Z16</f>
         <v>12</v>
       </c>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
       <c r="P16" s="3">
         <f>Graduation!Y16</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="3">
         <f>MAX(Graduation!U16:X16)</f>
@@ -7089,17 +7093,17 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="10.5" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="116">
+      <c r="B17" s="117">
         <f>Graduation!AH17</f>
         <v>3</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="119"/>
       <c r="G17" s="3">
         <f>Graduation!AG17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <f>MAX(Graduation!AC17:AF17)</f>
@@ -7110,17 +7114,17 @@
         <v>0</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="119">
+      <c r="K17" s="120">
         <f>Graduation!Z17</f>
         <v>13</v>
       </c>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
       <c r="P17" s="3">
         <f>Graduation!Y17</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <f>MAX(Graduation!U17:X17)</f>
@@ -7133,17 +7137,17 @@
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="10.5" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="116">
+      <c r="B18" s="117">
         <f>Graduation!AH18</f>
         <v>4</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
       <c r="G18" s="3">
         <f>Graduation!AG18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <f>MAX(Graduation!AC18:AF18)</f>
@@ -7154,17 +7158,17 @@
         <v>0</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="119">
+      <c r="K18" s="120">
         <f>Graduation!Z18</f>
         <v>14</v>
       </c>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
       <c r="P18" s="3">
         <f>Graduation!Y18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <f>MAX(Graduation!U18:X18)</f>
@@ -7177,17 +7181,17 @@
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" ht="10.5" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="116">
+      <c r="B19" s="117">
         <f>Graduation!AH19</f>
         <v>5</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="119"/>
       <c r="G19" s="3">
         <f>Graduation!AG19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <f>MAX(Graduation!AC19:AF19)</f>
@@ -7198,17 +7202,17 @@
         <v>0</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="119">
+      <c r="K19" s="120">
         <f>Graduation!Z19</f>
         <v>15</v>
       </c>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
       <c r="P19" s="3">
         <f>Graduation!Y19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="3">
         <f>MAX(Graduation!U19:X19)</f>
@@ -7221,17 +7225,17 @@
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" ht="10.5" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="116">
+      <c r="B20" s="117">
         <f>Graduation!AH20</f>
         <v>6</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
       <c r="G20" s="3">
         <f>Graduation!AG20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <f>MAX(Graduation!AC20:AF20)</f>
@@ -7242,17 +7246,17 @@
         <v>0</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="119">
+      <c r="K20" s="120">
         <f>Graduation!Z20</f>
         <v>16</v>
       </c>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="120"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
       <c r="P20" s="3">
         <f>Graduation!Y20</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <f>MAX(Graduation!U20:X20)</f>
@@ -7265,17 +7269,17 @@
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" ht="10.5" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="116">
+      <c r="B21" s="117">
         <f>Graduation!AH21</f>
         <v>7</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="119"/>
       <c r="G21" s="3">
         <f>Graduation!AG21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <f>MAX(Graduation!AC21:AF21)</f>
@@ -7286,17 +7290,17 @@
         <v>0</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="134">
+      <c r="K21" s="135">
         <f>Graduation!Z21</f>
         <v>17</v>
       </c>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
       <c r="P21" s="3">
         <f>Graduation!Y21</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <f>MAX(Graduation!U21:X21)</f>
@@ -7309,17 +7313,17 @@
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" ht="10.5" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="116">
+      <c r="B22" s="117">
         <f>Graduation!AH22</f>
         <v>8</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
       <c r="G22" s="3">
         <f>Graduation!AG22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <f>MAX(Graduation!AC22:AF22)</f>
@@ -7330,17 +7334,17 @@
         <v>0</v>
       </c>
       <c r="J22" s="17"/>
-      <c r="K22" s="119">
+      <c r="K22" s="120">
         <f>Graduation!Z22</f>
         <v>18</v>
       </c>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
       <c r="P22" s="18">
         <f>Graduation!Y22</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <f>MAX(Graduation!U22:X22)</f>
@@ -7353,17 +7357,17 @@
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" ht="10.5" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="116">
+      <c r="B23" s="117">
         <f>Graduation!AH23</f>
         <v>9</v>
       </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="119"/>
       <c r="G23" s="3">
         <f>Graduation!AG23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <f>MAX(Graduation!AC23:AF23)</f>
@@ -7374,17 +7378,17 @@
         <v>0</v>
       </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="119">
+      <c r="K23" s="120">
         <f>Graduation!Z23</f>
         <v>19</v>
       </c>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
       <c r="P23" s="3">
         <f>Graduation!Y23</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <f>MAX(Graduation!U23:X23)</f>
@@ -7397,17 +7401,17 @@
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" ht="10.5" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="116">
+      <c r="B24" s="117">
         <f>Graduation!AH24</f>
         <v>10</v>
       </c>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="119"/>
       <c r="G24" s="3">
         <f>Graduation!AG24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <f>MAX(Graduation!AC24:AF24)</f>
@@ -7418,17 +7422,17 @@
         <v>0</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="119">
+      <c r="K24" s="120">
         <f>Graduation!Z24</f>
         <v>20</v>
       </c>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
       <c r="P24" s="3">
         <f>Graduation!Y24</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <f>MAX(Graduation!U24:X24)</f>
@@ -7445,7 +7449,7 @@
       </c>
       <c r="B25" s="24">
         <f>SUM(G15:G24)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>25</v>
@@ -7457,24 +7461,24 @@
       <c r="E25" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="51" t="e">
         <f>D25/B25</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="137">
+      <c r="H25" s="138" t="e">
         <f>(F25*4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="139"/>
       <c r="J25" s="25" t="s">
         <v>24</v>
       </c>
       <c r="K25" s="24">
         <f>SUM(P15:P24)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L25" s="25" t="s">
         <v>25</v>
@@ -7486,106 +7490,106 @@
       <c r="N25" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="51">
+      <c r="O25" s="51" t="e">
         <f>M25/K25</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P25" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="Q25" s="137">
+      <c r="Q25" s="138" t="e">
         <f>(O25*4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="139"/>
     </row>
     <row r="26" spans="1:18" s="44" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A26" s="139" t="s">
+      <c r="A26" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="141" t="b">
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="142" t="e">
         <f>IF(F25&gt;89,"A",IF(F25&gt;79,"B",IF(F25&gt;69,"C",IF(F25&gt;54,"D"))))</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="139" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="141" t="b">
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="142" t="e">
         <f>IF(O25&gt;89,"A",IF(O25&gt;79,"B",IF(O25&gt;69,"C",IF(O25&gt;54,"D"))))</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="141"/>
-      <c r="Q26" s="141"/>
-      <c r="R26" s="142"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="142"/>
+      <c r="O26" s="142"/>
+      <c r="P26" s="142"/>
+      <c r="Q26" s="142"/>
+      <c r="R26" s="143"/>
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A27" s="136" t="s">
+      <c r="A27" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="136"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="136"/>
-      <c r="Q27" s="136"/>
-      <c r="R27" s="136"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="137"/>
+      <c r="R27" s="137"/>
     </row>
     <row r="28" spans="1:18" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="121" t="s">
+      <c r="A28" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="123" t="s">
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="124"/>
+      <c r="P28" s="124"/>
+      <c r="Q28" s="124"/>
+      <c r="R28" s="124"/>
     </row>
     <row r="29" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
       <c r="G29" s="27" t="s">
         <v>21</v>
       </c>
@@ -7598,13 +7602,13 @@
       <c r="J29" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="127" t="s">
+      <c r="K29" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
       <c r="P29" s="27" t="s">
         <v>21</v>
       </c>
@@ -7617,17 +7621,17 @@
     </row>
     <row r="30" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="116">
+      <c r="B30" s="117">
         <f>Graduation!R15</f>
         <v>21</v>
       </c>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
       <c r="G30" s="3">
         <f>Graduation!Q15</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3">
         <f>MAX(Graduation!M15:P15)</f>
@@ -7638,17 +7642,17 @@
         <v>0</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="119">
+      <c r="K30" s="120">
         <f>Graduation!H15</f>
         <v>31</v>
       </c>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
       <c r="P30" s="3">
         <f>Graduation!G15</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="3">
         <f>MAX(Graduation!C15:F15)</f>
@@ -7661,17 +7665,17 @@
     </row>
     <row r="31" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="116">
+      <c r="B31" s="117">
         <f>Graduation!R16</f>
         <v>22</v>
       </c>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="119"/>
       <c r="G31" s="3">
         <f>Graduation!Q16</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3">
         <f>MAX(Graduation!M16:P16)</f>
@@ -7682,17 +7686,17 @@
         <v>0</v>
       </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="119">
+      <c r="K31" s="120">
         <f>Graduation!H16</f>
         <v>32</v>
       </c>
-      <c r="L31" s="120"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="120"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
       <c r="P31" s="3">
         <f>Graduation!G16</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="3">
         <f>MAX(Graduation!C16:F16)</f>
@@ -7705,17 +7709,17 @@
     </row>
     <row r="32" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="116">
+      <c r="B32" s="117">
         <f>Graduation!R17</f>
         <v>23</v>
       </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="119"/>
       <c r="G32" s="3">
         <f>Graduation!Q17</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <f>MAX(Graduation!M17:P17)</f>
@@ -7726,17 +7730,17 @@
         <v>0</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="119">
+      <c r="K32" s="120">
         <f>Graduation!H17</f>
         <v>33</v>
       </c>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
       <c r="P32" s="3">
         <f>Graduation!G17</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <f>MAX(Graduation!C17:F17)</f>
@@ -7749,17 +7753,17 @@
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="116">
+      <c r="B33" s="117">
         <f>Graduation!R18</f>
         <v>24</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="119"/>
       <c r="G33" s="3">
         <f>Graduation!Q18</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <f>MAX(Graduation!M18:P18)</f>
@@ -7770,17 +7774,17 @@
         <v>0</v>
       </c>
       <c r="J33" s="4"/>
-      <c r="K33" s="119">
+      <c r="K33" s="120">
         <f>Graduation!H18</f>
         <v>34</v>
       </c>
-      <c r="L33" s="120"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="120"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="121"/>
+      <c r="O33" s="121"/>
       <c r="P33" s="3">
         <f>Graduation!G18</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <f>MAX(Graduation!C18:F18)</f>
@@ -7793,17 +7797,17 @@
     </row>
     <row r="34" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="116">
+      <c r="B34" s="117">
         <f>Graduation!R19</f>
         <v>25</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="119"/>
       <c r="G34" s="3">
         <f>Graduation!Q19</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
         <f>MAX(Graduation!M19:P19)</f>
@@ -7814,17 +7818,17 @@
         <v>0</v>
       </c>
       <c r="J34" s="4"/>
-      <c r="K34" s="119">
+      <c r="K34" s="120">
         <f>Graduation!H19</f>
         <v>35</v>
       </c>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="121"/>
       <c r="P34" s="3">
         <f>Graduation!G19</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="3">
         <f>MAX(Graduation!C19:F19)</f>
@@ -7837,17 +7841,17 @@
     </row>
     <row r="35" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="116">
+      <c r="B35" s="117">
         <f>Graduation!R20</f>
         <v>26</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="119"/>
       <c r="G35" s="3">
         <f>Graduation!Q20</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <f>MAX(Graduation!M20:P20)</f>
@@ -7858,17 +7862,17 @@
         <v>0</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="119">
+      <c r="K35" s="120">
         <f>Graduation!H20</f>
         <v>36</v>
       </c>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="121"/>
       <c r="P35" s="3">
         <f>Graduation!G20</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <f>MAX(Graduation!C20:F20)</f>
@@ -7881,17 +7885,17 @@
     </row>
     <row r="36" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="116">
+      <c r="B36" s="117">
         <f>Graduation!R21</f>
         <v>27</v>
       </c>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="119"/>
       <c r="G36" s="3">
         <f>Graduation!Q21</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" s="3">
         <f>MAX(Graduation!M21:P21)</f>
@@ -7902,17 +7906,17 @@
         <v>0</v>
       </c>
       <c r="J36" s="4"/>
-      <c r="K36" s="134">
+      <c r="K36" s="135">
         <f>Graduation!H21</f>
         <v>37</v>
       </c>
-      <c r="L36" s="135"/>
-      <c r="M36" s="135"/>
-      <c r="N36" s="135"/>
-      <c r="O36" s="135"/>
+      <c r="L36" s="136"/>
+      <c r="M36" s="136"/>
+      <c r="N36" s="136"/>
+      <c r="O36" s="136"/>
       <c r="P36" s="3">
         <f>Graduation!G21</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="3">
         <f>MAX(Graduation!C21:F21)</f>
@@ -7925,17 +7929,17 @@
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="116">
+      <c r="B37" s="117">
         <f>Graduation!R22</f>
         <v>28</v>
       </c>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="118"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="119"/>
       <c r="G37" s="3">
         <f>Graduation!Q22</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" s="3">
         <f>MAX(Graduation!M22:P22)</f>
@@ -7946,17 +7950,17 @@
         <v>0</v>
       </c>
       <c r="J37" s="17"/>
-      <c r="K37" s="119">
+      <c r="K37" s="120">
         <f>Graduation!H22</f>
         <v>38</v>
       </c>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120"/>
-      <c r="N37" s="120"/>
-      <c r="O37" s="120"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="121"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="121"/>
       <c r="P37" s="18">
         <f>Graduation!G22</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="3">
         <f>MAX(Graduation!C22:F22)</f>
@@ -7969,17 +7973,17 @@
     </row>
     <row r="38" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="116">
+      <c r="B38" s="117">
         <f>Graduation!R23</f>
         <v>29</v>
       </c>
-      <c r="C38" s="117"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="119"/>
       <c r="G38" s="3">
         <f>Graduation!Q23</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38" s="3">
         <f>MAX(Graduation!M23:P23)</f>
@@ -7990,17 +7994,17 @@
         <v>0</v>
       </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="119">
+      <c r="K38" s="120">
         <f>Graduation!H23</f>
         <v>39</v>
       </c>
-      <c r="L38" s="120"/>
-      <c r="M38" s="120"/>
-      <c r="N38" s="120"/>
-      <c r="O38" s="120"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="121"/>
       <c r="P38" s="3">
         <f>Graduation!G23</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="3">
         <f>MAX(Graduation!C23:F23)</f>
@@ -8013,17 +8017,17 @@
     </row>
     <row r="39" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="116">
+      <c r="B39" s="117">
         <f>Graduation!R24</f>
         <v>30</v>
       </c>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="118"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="119"/>
       <c r="G39" s="3">
         <f>Graduation!Q24</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" s="3">
         <f>MAX(Graduation!M24:P24)</f>
@@ -8034,17 +8038,17 @@
         <v>0</v>
       </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="119">
+      <c r="K39" s="120">
         <f>Graduation!H24</f>
         <v>40</v>
       </c>
-      <c r="L39" s="120"/>
-      <c r="M39" s="120"/>
-      <c r="N39" s="120"/>
-      <c r="O39" s="120"/>
+      <c r="L39" s="121"/>
+      <c r="M39" s="121"/>
+      <c r="N39" s="121"/>
+      <c r="O39" s="121"/>
       <c r="P39" s="3">
         <f>Graduation!G24</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="3">
         <f>MAX(Graduation!C24:F24)</f>
@@ -8061,7 +8065,7 @@
       </c>
       <c r="B40" s="24">
         <f>SUM(G30:G39)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>25</v>
@@ -8073,24 +8077,24 @@
       <c r="E40" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="51">
+      <c r="F40" s="51" t="e">
         <f>D40/B40</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="137">
+      <c r="H40" s="138" t="e">
         <f>(F40*4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="139"/>
       <c r="J40" s="25" t="s">
         <v>24</v>
       </c>
       <c r="K40" s="24">
         <f>SUM(P30:P39)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L40" s="25" t="s">
         <v>25</v>
@@ -8102,106 +8106,106 @@
       <c r="N40" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O40" s="51">
+      <c r="O40" s="51" t="e">
         <f>M40/K40</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P40" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="137">
+      <c r="Q40" s="138" t="e">
         <f>(O40*4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R40" s="139"/>
     </row>
     <row r="41" spans="1:18" s="44" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A41" s="139" t="s">
+      <c r="A41" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="141" t="b">
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="142" t="e">
         <f>IF(F40&gt;89,"A",IF(F40&gt;79,"B",IF(F40&gt;69,"C",IF(F40&gt;54,"D"))))</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="139" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" s="142"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="K41" s="140"/>
-      <c r="L41" s="140"/>
-      <c r="M41" s="141" t="b">
+      <c r="K41" s="141"/>
+      <c r="L41" s="141"/>
+      <c r="M41" s="142" t="e">
         <f>IF(O40&gt;89,"A",IF(O40&gt;79,"B",IF(O40&gt;69,"C",IF(O40&gt;54,"D"))))</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="141"/>
-      <c r="O41" s="141"/>
-      <c r="P41" s="141"/>
-      <c r="Q41" s="141"/>
-      <c r="R41" s="142"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="142"/>
+      <c r="O41" s="142"/>
+      <c r="P41" s="142"/>
+      <c r="Q41" s="142"/>
+      <c r="R41" s="143"/>
     </row>
     <row r="42" spans="1:18" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A42" s="136" t="s">
+      <c r="A42" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="136"/>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="136"/>
-      <c r="M42" s="136"/>
-      <c r="N42" s="136"/>
-      <c r="O42" s="136"/>
-      <c r="P42" s="136"/>
-      <c r="Q42" s="136"/>
-      <c r="R42" s="136"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="137"/>
+      <c r="L42" s="137"/>
+      <c r="M42" s="137"/>
+      <c r="N42" s="137"/>
+      <c r="O42" s="137"/>
+      <c r="P42" s="137"/>
+      <c r="Q42" s="137"/>
+      <c r="R42" s="137"/>
     </row>
     <row r="43" spans="1:18" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="121" t="s">
+      <c r="A43" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="123" t="s">
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="K43" s="123"/>
-      <c r="L43" s="123"/>
-      <c r="M43" s="123"/>
-      <c r="N43" s="123"/>
-      <c r="O43" s="123"/>
-      <c r="P43" s="123"/>
-      <c r="Q43" s="123"/>
-      <c r="R43" s="123"/>
+      <c r="K43" s="124"/>
+      <c r="L43" s="124"/>
+      <c r="M43" s="124"/>
+      <c r="N43" s="124"/>
+      <c r="O43" s="124"/>
+      <c r="P43" s="124"/>
+      <c r="Q43" s="124"/>
+      <c r="R43" s="124"/>
     </row>
     <row r="44" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="124" t="s">
+      <c r="B44" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="126"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="127"/>
       <c r="G44" s="27" t="s">
         <v>21</v>
       </c>
@@ -8214,13 +8218,13 @@
       <c r="J44" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="127" t="s">
+      <c r="K44" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="L44" s="127"/>
-      <c r="M44" s="127"/>
-      <c r="N44" s="127"/>
-      <c r="O44" s="127"/>
+      <c r="L44" s="128"/>
+      <c r="M44" s="128"/>
+      <c r="N44" s="128"/>
+      <c r="O44" s="128"/>
       <c r="P44" s="27" t="s">
         <v>21</v>
       </c>
@@ -8233,17 +8237,17 @@
     </row>
     <row r="45" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="116">
+      <c r="B45" s="117">
         <f>Graduation!AH31</f>
         <v>41</v>
       </c>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="119"/>
       <c r="G45" s="3">
         <f>Graduation!AG31</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <f>MAX(Graduation!AC31:AF31)</f>
@@ -8254,17 +8258,17 @@
         <v>0</v>
       </c>
       <c r="J45" s="4"/>
-      <c r="K45" s="119">
+      <c r="K45" s="120">
         <f>Graduation!Z31</f>
         <v>51</v>
       </c>
-      <c r="L45" s="120"/>
-      <c r="M45" s="120"/>
-      <c r="N45" s="120"/>
-      <c r="O45" s="120"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="121"/>
+      <c r="N45" s="121"/>
+      <c r="O45" s="121"/>
       <c r="P45" s="3">
         <f>Graduation!Y31</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <f>MAX(Graduation!U31:X31)</f>
@@ -8277,17 +8281,17 @@
     </row>
     <row r="46" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="116">
+      <c r="B46" s="117">
         <f>Graduation!AH32</f>
         <v>42</v>
       </c>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="119"/>
       <c r="G46" s="3">
         <f>Graduation!AG32</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <f>MAX(Graduation!AC32:AF32)</f>
@@ -8298,17 +8302,17 @@
         <v>0</v>
       </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="119">
+      <c r="K46" s="120">
         <f>Graduation!Z32</f>
         <v>52</v>
       </c>
-      <c r="L46" s="120"/>
-      <c r="M46" s="120"/>
-      <c r="N46" s="120"/>
-      <c r="O46" s="120"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="121"/>
+      <c r="N46" s="121"/>
+      <c r="O46" s="121"/>
       <c r="P46" s="3">
         <f>Graduation!Y32</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <f>MAX(Graduation!U32:X32)</f>
@@ -8321,17 +8325,17 @@
     </row>
     <row r="47" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A47" s="4"/>
-      <c r="B47" s="116">
+      <c r="B47" s="117">
         <f>Graduation!AH33</f>
         <v>43</v>
       </c>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="119"/>
       <c r="G47" s="3">
         <f>Graduation!AG33</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <f>MAX(Graduation!AC33:AF33)</f>
@@ -8342,17 +8346,17 @@
         <v>0</v>
       </c>
       <c r="J47" s="4"/>
-      <c r="K47" s="119">
+      <c r="K47" s="120">
         <f>Graduation!Z33</f>
         <v>53</v>
       </c>
-      <c r="L47" s="120"/>
-      <c r="M47" s="120"/>
-      <c r="N47" s="120"/>
-      <c r="O47" s="120"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="121"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="121"/>
       <c r="P47" s="3">
         <f>Graduation!Y33</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <f>MAX(Graduation!U33:X33)</f>
@@ -8365,17 +8369,17 @@
     </row>
     <row r="48" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A48" s="4"/>
-      <c r="B48" s="116">
+      <c r="B48" s="117">
         <f>Graduation!AH34</f>
         <v>44</v>
       </c>
-      <c r="C48" s="117"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="119"/>
       <c r="G48" s="3">
         <f>Graduation!AG34</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <f>MAX(Graduation!AC34:AF34)</f>
@@ -8386,17 +8390,17 @@
         <v>0</v>
       </c>
       <c r="J48" s="4"/>
-      <c r="K48" s="119">
+      <c r="K48" s="120">
         <f>Graduation!Z34</f>
         <v>54</v>
       </c>
-      <c r="L48" s="120"/>
-      <c r="M48" s="120"/>
-      <c r="N48" s="120"/>
-      <c r="O48" s="120"/>
+      <c r="L48" s="121"/>
+      <c r="M48" s="121"/>
+      <c r="N48" s="121"/>
+      <c r="O48" s="121"/>
       <c r="P48" s="3">
         <f>Graduation!Y34</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <f>MAX(Graduation!U34:X34)</f>
@@ -8409,17 +8413,17 @@
     </row>
     <row r="49" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A49" s="4"/>
-      <c r="B49" s="116">
+      <c r="B49" s="117">
         <f>Graduation!AH35</f>
         <v>45</v>
       </c>
-      <c r="C49" s="117"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="119"/>
       <c r="G49" s="3">
         <f>Graduation!AG35</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <f>MAX(Graduation!AC35:AF35)</f>
@@ -8430,17 +8434,17 @@
         <v>0</v>
       </c>
       <c r="J49" s="4"/>
-      <c r="K49" s="119">
+      <c r="K49" s="120">
         <f>Graduation!Z35</f>
         <v>55</v>
       </c>
-      <c r="L49" s="120"/>
-      <c r="M49" s="120"/>
-      <c r="N49" s="120"/>
-      <c r="O49" s="120"/>
+      <c r="L49" s="121"/>
+      <c r="M49" s="121"/>
+      <c r="N49" s="121"/>
+      <c r="O49" s="121"/>
       <c r="P49" s="3">
         <f>Graduation!Y35</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
         <f>MAX(Graduation!U35:X35)</f>
@@ -8453,17 +8457,17 @@
     </row>
     <row r="50" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A50" s="4"/>
-      <c r="B50" s="116">
+      <c r="B50" s="117">
         <f>Graduation!AH36</f>
         <v>46</v>
       </c>
-      <c r="C50" s="117"/>
-      <c r="D50" s="117"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="119"/>
       <c r="G50" s="3">
         <f>Graduation!AG36</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H50" s="3">
         <f>MAX(Graduation!AC36:AF36)</f>
@@ -8474,17 +8478,17 @@
         <v>0</v>
       </c>
       <c r="J50" s="4"/>
-      <c r="K50" s="119">
+      <c r="K50" s="120">
         <f>Graduation!Z36</f>
         <v>56</v>
       </c>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="120"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="121"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="121"/>
       <c r="P50" s="3">
         <f>Graduation!Y36</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="3">
         <f>MAX(Graduation!U36:X36)</f>
@@ -8497,17 +8501,17 @@
     </row>
     <row r="51" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A51" s="4"/>
-      <c r="B51" s="116">
+      <c r="B51" s="117">
         <f>Graduation!AH37</f>
         <v>47</v>
       </c>
-      <c r="C51" s="117"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="118"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="119"/>
       <c r="G51" s="3">
         <f>Graduation!AG37</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H51" s="3">
         <f>MAX(Graduation!AC37:AF37)</f>
@@ -8518,17 +8522,17 @@
         <v>0</v>
       </c>
       <c r="J51" s="4"/>
-      <c r="K51" s="134">
+      <c r="K51" s="135">
         <f>Graduation!Z37</f>
         <v>57</v>
       </c>
-      <c r="L51" s="135"/>
-      <c r="M51" s="135"/>
-      <c r="N51" s="135"/>
-      <c r="O51" s="135"/>
+      <c r="L51" s="136"/>
+      <c r="M51" s="136"/>
+      <c r="N51" s="136"/>
+      <c r="O51" s="136"/>
       <c r="P51" s="3">
         <f>Graduation!Y37</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="3">
         <f>MAX(Graduation!U37:X37)</f>
@@ -8541,17 +8545,17 @@
     </row>
     <row r="52" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A52" s="4"/>
-      <c r="B52" s="116">
+      <c r="B52" s="117">
         <f>Graduation!AH38</f>
         <v>48</v>
       </c>
-      <c r="C52" s="117"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="117"/>
-      <c r="F52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="119"/>
       <c r="G52" s="3">
         <f>Graduation!AG38</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <f>MAX(Graduation!AC38:AF38)</f>
@@ -8562,17 +8566,17 @@
         <v>0</v>
       </c>
       <c r="J52" s="17"/>
-      <c r="K52" s="119">
+      <c r="K52" s="120">
         <f>Graduation!Z38</f>
         <v>58</v>
       </c>
-      <c r="L52" s="120"/>
-      <c r="M52" s="120"/>
-      <c r="N52" s="120"/>
-      <c r="O52" s="120"/>
+      <c r="L52" s="121"/>
+      <c r="M52" s="121"/>
+      <c r="N52" s="121"/>
+      <c r="O52" s="121"/>
       <c r="P52" s="18">
         <f>Graduation!Y38</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <f>MAX(Graduation!U38:X38)</f>
@@ -8585,17 +8589,17 @@
     </row>
     <row r="53" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A53" s="4"/>
-      <c r="B53" s="116">
+      <c r="B53" s="117">
         <f>Graduation!AH39</f>
         <v>49</v>
       </c>
-      <c r="C53" s="117"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="119"/>
       <c r="G53" s="3">
         <f>Graduation!AG39</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H53" s="3">
         <f>MAX(Graduation!AC39:AF39)</f>
@@ -8606,17 +8610,17 @@
         <v>0</v>
       </c>
       <c r="J53" s="4"/>
-      <c r="K53" s="119">
+      <c r="K53" s="120">
         <f>Graduation!Z39</f>
         <v>59</v>
       </c>
-      <c r="L53" s="120"/>
-      <c r="M53" s="120"/>
-      <c r="N53" s="120"/>
-      <c r="O53" s="120"/>
+      <c r="L53" s="121"/>
+      <c r="M53" s="121"/>
+      <c r="N53" s="121"/>
+      <c r="O53" s="121"/>
       <c r="P53" s="3">
         <f>Graduation!Y39</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="3">
         <f>MAX(Graduation!U39:X39)</f>
@@ -8629,17 +8633,17 @@
     </row>
     <row r="54" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A54" s="4"/>
-      <c r="B54" s="116">
+      <c r="B54" s="117">
         <f>Graduation!AH40</f>
         <v>50</v>
       </c>
-      <c r="C54" s="117"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="117"/>
-      <c r="F54" s="118"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="119"/>
       <c r="G54" s="3">
         <f>Graduation!AG40</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <f>MAX(Graduation!AC40:AF40)</f>
@@ -8650,17 +8654,17 @@
         <v>0</v>
       </c>
       <c r="J54" s="4"/>
-      <c r="K54" s="119">
+      <c r="K54" s="120">
         <f>Graduation!Z40</f>
         <v>60</v>
       </c>
-      <c r="L54" s="120"/>
-      <c r="M54" s="120"/>
-      <c r="N54" s="120"/>
-      <c r="O54" s="120"/>
+      <c r="L54" s="121"/>
+      <c r="M54" s="121"/>
+      <c r="N54" s="121"/>
+      <c r="O54" s="121"/>
       <c r="P54" s="3">
         <f>Graduation!Y40</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <f>MAX(Graduation!U40:X40)</f>
@@ -8677,7 +8681,7 @@
       </c>
       <c r="B55" s="24">
         <f>SUM(G45:G54)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>25</v>
@@ -8689,24 +8693,24 @@
       <c r="E55" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="51">
+      <c r="F55" s="51" t="e">
         <f>D55/B55</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="137">
+      <c r="H55" s="138" t="e">
         <f>(F55*4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I55" s="139"/>
       <c r="J55" s="25" t="s">
         <v>24</v>
       </c>
       <c r="K55" s="24">
         <f>SUM(P45:P54)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L55" s="25" t="s">
         <v>25</v>
@@ -8718,106 +8722,106 @@
       <c r="N55" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O55" s="51">
+      <c r="O55" s="51" t="e">
         <f>M55/K55</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P55" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="Q55" s="137">
+      <c r="Q55" s="138" t="e">
         <f>(O55*4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="R55" s="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R55" s="139"/>
     </row>
     <row r="56" spans="1:18" s="44" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A56" s="139" t="s">
+      <c r="A56" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="140"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="141" t="b">
+      <c r="B56" s="141"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="142" t="e">
         <f>IF(F55&gt;89,"A",IF(F55&gt;79,"B",IF(F55&gt;69,"C",IF(F55&gt;54,"D"))))</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="141"/>
-      <c r="F56" s="141"/>
-      <c r="G56" s="141"/>
-      <c r="H56" s="141"/>
-      <c r="I56" s="142"/>
-      <c r="J56" s="139" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E56" s="142"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="K56" s="140"/>
-      <c r="L56" s="140"/>
-      <c r="M56" s="141" t="b">
+      <c r="K56" s="141"/>
+      <c r="L56" s="141"/>
+      <c r="M56" s="142" t="e">
         <f>IF(O55&gt;89,"A",IF(O55&gt;79,"B",IF(O55&gt;69,"C",IF(O55&gt;54,"D"))))</f>
-        <v>0</v>
-      </c>
-      <c r="N56" s="141"/>
-      <c r="O56" s="141"/>
-      <c r="P56" s="141"/>
-      <c r="Q56" s="141"/>
-      <c r="R56" s="142"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N56" s="142"/>
+      <c r="O56" s="142"/>
+      <c r="P56" s="142"/>
+      <c r="Q56" s="142"/>
+      <c r="R56" s="143"/>
     </row>
     <row r="57" spans="1:18" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A57" s="143" t="s">
+      <c r="A57" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="144"/>
-      <c r="C57" s="144"/>
-      <c r="D57" s="144"/>
-      <c r="E57" s="144"/>
-      <c r="F57" s="144"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="144"/>
-      <c r="I57" s="144"/>
-      <c r="J57" s="144"/>
-      <c r="K57" s="144"/>
-      <c r="L57" s="144"/>
-      <c r="M57" s="144"/>
-      <c r="N57" s="144"/>
-      <c r="O57" s="144"/>
-      <c r="P57" s="144"/>
-      <c r="Q57" s="144"/>
-      <c r="R57" s="145"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="145"/>
+      <c r="J57" s="145"/>
+      <c r="K57" s="145"/>
+      <c r="L57" s="145"/>
+      <c r="M57" s="145"/>
+      <c r="N57" s="145"/>
+      <c r="O57" s="145"/>
+      <c r="P57" s="145"/>
+      <c r="Q57" s="145"/>
+      <c r="R57" s="146"/>
     </row>
     <row r="58" spans="1:18" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A58" s="146" t="s">
+      <c r="A58" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="147"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
-      <c r="G58" s="147"/>
-      <c r="H58" s="147"/>
-      <c r="I58" s="148"/>
-      <c r="J58" s="146" t="s">
+      <c r="B58" s="148"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="148"/>
+      <c r="F58" s="148"/>
+      <c r="G58" s="148"/>
+      <c r="H58" s="148"/>
+      <c r="I58" s="149"/>
+      <c r="J58" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="K58" s="147"/>
-      <c r="L58" s="147"/>
-      <c r="M58" s="147"/>
-      <c r="N58" s="147"/>
-      <c r="O58" s="147"/>
-      <c r="P58" s="147"/>
-      <c r="Q58" s="147"/>
-      <c r="R58" s="148"/>
+      <c r="K58" s="148"/>
+      <c r="L58" s="148"/>
+      <c r="M58" s="148"/>
+      <c r="N58" s="148"/>
+      <c r="O58" s="148"/>
+      <c r="P58" s="148"/>
+      <c r="Q58" s="148"/>
+      <c r="R58" s="149"/>
     </row>
     <row r="59" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1">
       <c r="A59" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="124" t="s">
+      <c r="B59" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="125"/>
-      <c r="D59" s="125"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="126"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="127"/>
       <c r="G59" s="27" t="s">
         <v>21</v>
       </c>
@@ -8830,13 +8834,13 @@
       <c r="J59" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K59" s="124" t="s">
+      <c r="K59" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="L59" s="125"/>
-      <c r="M59" s="125"/>
-      <c r="N59" s="125"/>
-      <c r="O59" s="126"/>
+      <c r="L59" s="126"/>
+      <c r="M59" s="126"/>
+      <c r="N59" s="126"/>
+      <c r="O59" s="127"/>
       <c r="P59" s="27" t="s">
         <v>21</v>
       </c>
@@ -8849,17 +8853,17 @@
     </row>
     <row r="60" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A60" s="4"/>
-      <c r="B60" s="116">
+      <c r="B60" s="117">
         <f>Graduation!R31</f>
         <v>61</v>
       </c>
-      <c r="C60" s="149"/>
-      <c r="D60" s="149"/>
-      <c r="E60" s="149"/>
-      <c r="F60" s="150"/>
+      <c r="C60" s="150"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="150"/>
+      <c r="F60" s="151"/>
       <c r="G60" s="3">
         <f>Graduation!Q31</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <f>MAX(Graduation!M31:P31)</f>
@@ -8870,17 +8874,17 @@
         <v>0</v>
       </c>
       <c r="J60" s="4"/>
-      <c r="K60" s="116">
+      <c r="K60" s="117">
         <f>Graduation!H31</f>
         <v>71</v>
       </c>
-      <c r="L60" s="149"/>
-      <c r="M60" s="149"/>
-      <c r="N60" s="149"/>
-      <c r="O60" s="150"/>
+      <c r="L60" s="150"/>
+      <c r="M60" s="150"/>
+      <c r="N60" s="150"/>
+      <c r="O60" s="151"/>
       <c r="P60" s="3">
         <f>Graduation!G31</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="3">
         <f>MAX(Graduation!C31:F31)</f>
@@ -8893,17 +8897,17 @@
     </row>
     <row r="61" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A61" s="4"/>
-      <c r="B61" s="116">
+      <c r="B61" s="117">
         <f>Graduation!R32</f>
         <v>62</v>
       </c>
-      <c r="C61" s="149"/>
-      <c r="D61" s="149"/>
-      <c r="E61" s="149"/>
-      <c r="F61" s="150"/>
+      <c r="C61" s="150"/>
+      <c r="D61" s="150"/>
+      <c r="E61" s="150"/>
+      <c r="F61" s="151"/>
       <c r="G61" s="3">
         <f>Graduation!Q32</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <f>MAX(Graduation!M32:P32)</f>
@@ -8914,17 +8918,17 @@
         <v>0</v>
       </c>
       <c r="J61" s="4"/>
-      <c r="K61" s="116">
+      <c r="K61" s="117">
         <f>Graduation!H32</f>
         <v>72</v>
       </c>
-      <c r="L61" s="149"/>
-      <c r="M61" s="149"/>
-      <c r="N61" s="149"/>
-      <c r="O61" s="150"/>
+      <c r="L61" s="150"/>
+      <c r="M61" s="150"/>
+      <c r="N61" s="150"/>
+      <c r="O61" s="151"/>
       <c r="P61" s="3">
         <f>Graduation!G32</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <f>MAX(Graduation!C32:F32)</f>
@@ -8937,17 +8941,17 @@
     </row>
     <row r="62" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A62" s="4"/>
-      <c r="B62" s="116">
+      <c r="B62" s="117">
         <f>Graduation!R33</f>
         <v>63</v>
       </c>
-      <c r="C62" s="149"/>
-      <c r="D62" s="149"/>
-      <c r="E62" s="149"/>
-      <c r="F62" s="150"/>
+      <c r="C62" s="150"/>
+      <c r="D62" s="150"/>
+      <c r="E62" s="150"/>
+      <c r="F62" s="151"/>
       <c r="G62" s="3">
         <f>Graduation!Q33</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <f>MAX(Graduation!M33:P33)</f>
@@ -8958,17 +8962,17 @@
         <v>0</v>
       </c>
       <c r="J62" s="4"/>
-      <c r="K62" s="116">
+      <c r="K62" s="117">
         <f>Graduation!H33</f>
         <v>73</v>
       </c>
-      <c r="L62" s="149"/>
-      <c r="M62" s="149"/>
-      <c r="N62" s="149"/>
-      <c r="O62" s="150"/>
+      <c r="L62" s="150"/>
+      <c r="M62" s="150"/>
+      <c r="N62" s="150"/>
+      <c r="O62" s="151"/>
       <c r="P62" s="3">
         <f>Graduation!G33</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <f>MAX(Graduation!C33:F33)</f>
@@ -8981,17 +8985,17 @@
     </row>
     <row r="63" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A63" s="4"/>
-      <c r="B63" s="116">
+      <c r="B63" s="117">
         <f>Graduation!R34</f>
         <v>64</v>
       </c>
-      <c r="C63" s="149"/>
-      <c r="D63" s="149"/>
-      <c r="E63" s="149"/>
-      <c r="F63" s="150"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="150"/>
+      <c r="F63" s="151"/>
       <c r="G63" s="3">
         <f>Graduation!Q34</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H63" s="3">
         <f>MAX(Graduation!M34:P34)</f>
@@ -9002,17 +9006,17 @@
         <v>0</v>
       </c>
       <c r="J63" s="4"/>
-      <c r="K63" s="116">
+      <c r="K63" s="117">
         <f>Graduation!H34</f>
         <v>74</v>
       </c>
-      <c r="L63" s="149"/>
-      <c r="M63" s="149"/>
-      <c r="N63" s="149"/>
-      <c r="O63" s="150"/>
+      <c r="L63" s="150"/>
+      <c r="M63" s="150"/>
+      <c r="N63" s="150"/>
+      <c r="O63" s="151"/>
       <c r="P63" s="3">
         <f>Graduation!G34</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="3">
         <f>MAX(Graduation!C34:F34)</f>
@@ -9025,17 +9029,17 @@
     </row>
     <row r="64" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A64" s="4"/>
-      <c r="B64" s="116">
+      <c r="B64" s="117">
         <f>Graduation!R35</f>
         <v>65</v>
       </c>
-      <c r="C64" s="149"/>
-      <c r="D64" s="149"/>
-      <c r="E64" s="149"/>
-      <c r="F64" s="150"/>
+      <c r="C64" s="150"/>
+      <c r="D64" s="150"/>
+      <c r="E64" s="150"/>
+      <c r="F64" s="151"/>
       <c r="G64" s="3">
         <f>Graduation!Q35</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H64" s="3">
         <f>MAX(Graduation!M35:P35)</f>
@@ -9046,17 +9050,17 @@
         <v>0</v>
       </c>
       <c r="J64" s="4"/>
-      <c r="K64" s="116">
+      <c r="K64" s="117">
         <f>Graduation!H35</f>
         <v>75</v>
       </c>
-      <c r="L64" s="149"/>
-      <c r="M64" s="149"/>
-      <c r="N64" s="149"/>
-      <c r="O64" s="150"/>
+      <c r="L64" s="150"/>
+      <c r="M64" s="150"/>
+      <c r="N64" s="150"/>
+      <c r="O64" s="151"/>
       <c r="P64" s="3">
         <f>Graduation!G35</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="3">
         <f>MAX(Graduation!C35:F35)</f>
@@ -9069,17 +9073,17 @@
     </row>
     <row r="65" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A65" s="4"/>
-      <c r="B65" s="116">
+      <c r="B65" s="117">
         <f>Graduation!R36</f>
         <v>66</v>
       </c>
-      <c r="C65" s="149"/>
-      <c r="D65" s="149"/>
-      <c r="E65" s="149"/>
-      <c r="F65" s="150"/>
+      <c r="C65" s="150"/>
+      <c r="D65" s="150"/>
+      <c r="E65" s="150"/>
+      <c r="F65" s="151"/>
       <c r="G65" s="3">
         <f>Graduation!Q36</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H65" s="3">
         <f>MAX(Graduation!M36:P36)</f>
@@ -9090,17 +9094,17 @@
         <v>0</v>
       </c>
       <c r="J65" s="4"/>
-      <c r="K65" s="116">
+      <c r="K65" s="117">
         <f>Graduation!H36</f>
         <v>76</v>
       </c>
-      <c r="L65" s="149"/>
-      <c r="M65" s="149"/>
-      <c r="N65" s="149"/>
-      <c r="O65" s="150"/>
+      <c r="L65" s="150"/>
+      <c r="M65" s="150"/>
+      <c r="N65" s="150"/>
+      <c r="O65" s="151"/>
       <c r="P65" s="3">
         <f>Graduation!G36</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="3">
         <f>MAX(Graduation!C36:F36)</f>
@@ -9113,17 +9117,17 @@
     </row>
     <row r="66" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A66" s="4"/>
-      <c r="B66" s="116">
+      <c r="B66" s="117">
         <f>Graduation!R37</f>
         <v>67</v>
       </c>
-      <c r="C66" s="149"/>
-      <c r="D66" s="149"/>
-      <c r="E66" s="149"/>
-      <c r="F66" s="150"/>
+      <c r="C66" s="150"/>
+      <c r="D66" s="150"/>
+      <c r="E66" s="150"/>
+      <c r="F66" s="151"/>
       <c r="G66" s="3">
         <f>Graduation!Q37</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <f>MAX(Graduation!M37:P37)</f>
@@ -9134,17 +9138,17 @@
         <v>0</v>
       </c>
       <c r="J66" s="4"/>
-      <c r="K66" s="116">
+      <c r="K66" s="117">
         <f>Graduation!H37</f>
         <v>77</v>
       </c>
-      <c r="L66" s="149"/>
-      <c r="M66" s="149"/>
-      <c r="N66" s="149"/>
-      <c r="O66" s="150"/>
+      <c r="L66" s="150"/>
+      <c r="M66" s="150"/>
+      <c r="N66" s="150"/>
+      <c r="O66" s="151"/>
       <c r="P66" s="3">
         <f>Graduation!G37</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="3">
         <f>MAX(Graduation!C37:F37)</f>
@@ -9157,17 +9161,17 @@
     </row>
     <row r="67" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A67" s="4"/>
-      <c r="B67" s="116">
+      <c r="B67" s="117">
         <f>Graduation!R38</f>
         <v>68</v>
       </c>
-      <c r="C67" s="149"/>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
-      <c r="F67" s="150"/>
+      <c r="C67" s="150"/>
+      <c r="D67" s="150"/>
+      <c r="E67" s="150"/>
+      <c r="F67" s="151"/>
       <c r="G67" s="3">
         <f>Graduation!Q38</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H67" s="3">
         <f>MAX(Graduation!M38:P38)</f>
@@ -9178,17 +9182,17 @@
         <v>0</v>
       </c>
       <c r="J67" s="17"/>
-      <c r="K67" s="116">
+      <c r="K67" s="117">
         <f>Graduation!H38</f>
         <v>78</v>
       </c>
-      <c r="L67" s="149"/>
-      <c r="M67" s="149"/>
-      <c r="N67" s="149"/>
-      <c r="O67" s="150"/>
+      <c r="L67" s="150"/>
+      <c r="M67" s="150"/>
+      <c r="N67" s="150"/>
+      <c r="O67" s="151"/>
       <c r="P67" s="18">
         <f>Graduation!G38</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="3">
         <f>MAX(Graduation!C38:F38)</f>
@@ -9201,17 +9205,17 @@
     </row>
     <row r="68" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A68" s="4"/>
-      <c r="B68" s="116">
+      <c r="B68" s="117">
         <f>Graduation!R39</f>
         <v>69</v>
       </c>
-      <c r="C68" s="149"/>
-      <c r="D68" s="149"/>
-      <c r="E68" s="149"/>
-      <c r="F68" s="150"/>
+      <c r="C68" s="150"/>
+      <c r="D68" s="150"/>
+      <c r="E68" s="150"/>
+      <c r="F68" s="151"/>
       <c r="G68" s="3">
         <f>Graduation!Q39</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H68" s="3">
         <f>MAX(Graduation!M39:P39)</f>
@@ -9222,17 +9226,17 @@
         <v>0</v>
       </c>
       <c r="J68" s="4"/>
-      <c r="K68" s="116">
+      <c r="K68" s="117">
         <f>Graduation!H39</f>
         <v>79</v>
       </c>
-      <c r="L68" s="149"/>
-      <c r="M68" s="149"/>
-      <c r="N68" s="149"/>
-      <c r="O68" s="150"/>
+      <c r="L68" s="150"/>
+      <c r="M68" s="150"/>
+      <c r="N68" s="150"/>
+      <c r="O68" s="151"/>
       <c r="P68" s="3">
         <f>Graduation!G39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="3">
         <f>MAX(Graduation!C39:F39)</f>
@@ -9245,17 +9249,17 @@
     </row>
     <row r="69" spans="1:18" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A69" s="4"/>
-      <c r="B69" s="116">
+      <c r="B69" s="117">
         <f>Graduation!R40</f>
         <v>70</v>
       </c>
-      <c r="C69" s="149"/>
-      <c r="D69" s="149"/>
-      <c r="E69" s="149"/>
-      <c r="F69" s="150"/>
+      <c r="C69" s="150"/>
+      <c r="D69" s="150"/>
+      <c r="E69" s="150"/>
+      <c r="F69" s="151"/>
       <c r="G69" s="3">
         <f>Graduation!Q40</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H69" s="3">
         <f>MAX(Graduation!M40:P40)</f>
@@ -9266,17 +9270,17 @@
         <v>0</v>
       </c>
       <c r="J69" s="4"/>
-      <c r="K69" s="116">
+      <c r="K69" s="117">
         <f>Graduation!H40</f>
         <v>80</v>
       </c>
-      <c r="L69" s="149"/>
-      <c r="M69" s="149"/>
-      <c r="N69" s="149"/>
-      <c r="O69" s="150"/>
+      <c r="L69" s="150"/>
+      <c r="M69" s="150"/>
+      <c r="N69" s="150"/>
+      <c r="O69" s="151"/>
       <c r="P69" s="3">
         <f>Graduation!G40</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="3">
         <f>MAX(Graduation!C40:F40)</f>
@@ -9293,7 +9297,7 @@
       </c>
       <c r="B70" s="24">
         <f>SUM(G60:G69)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>25</v>
@@ -9305,24 +9309,24 @@
       <c r="E70" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F70" s="51">
+      <c r="F70" s="51" t="e">
         <f>D70/B70</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H70" s="137">
+      <c r="H70" s="138" t="e">
         <f>(F70*4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I70" s="139"/>
       <c r="J70" s="25" t="s">
         <v>24</v>
       </c>
       <c r="K70" s="24">
         <f>SUM(P60:P69)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L70" s="25" t="s">
         <v>25</v>
@@ -9334,48 +9338,48 @@
       <c r="N70" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O70" s="51">
+      <c r="O70" s="51" t="e">
         <f>M70/K70</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P70" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="Q70" s="137">
+      <c r="Q70" s="138" t="e">
         <f>(O70*4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="R70" s="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R70" s="139"/>
     </row>
     <row r="71" spans="1:18" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A71" s="151" t="s">
+      <c r="A71" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="152"/>
-      <c r="C71" s="152"/>
-      <c r="D71" s="153" t="b">
+      <c r="B71" s="153"/>
+      <c r="C71" s="153"/>
+      <c r="D71" s="154" t="e">
         <f>IF(F70&gt;89,"A",IF(F70&gt;79,"B",IF(F70&gt;69,"C",IF(F70&gt;54,"D"))))</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="153"/>
-      <c r="F71" s="153"/>
-      <c r="G71" s="153"/>
-      <c r="H71" s="153"/>
-      <c r="I71" s="154"/>
-      <c r="J71" s="151" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E71" s="154"/>
+      <c r="F71" s="154"/>
+      <c r="G71" s="154"/>
+      <c r="H71" s="154"/>
+      <c r="I71" s="155"/>
+      <c r="J71" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="K71" s="152"/>
-      <c r="L71" s="152"/>
-      <c r="M71" s="153" t="b">
+      <c r="K71" s="153"/>
+      <c r="L71" s="153"/>
+      <c r="M71" s="154" t="e">
         <f>IF(O70&gt;89,"A",IF(O70&gt;79,"B",IF(O70&gt;69,"C",IF(O70&gt;54,"D"))))</f>
-        <v>0</v>
-      </c>
-      <c r="N71" s="153"/>
-      <c r="O71" s="153"/>
-      <c r="P71" s="153"/>
-      <c r="Q71" s="153"/>
-      <c r="R71" s="154"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N71" s="154"/>
+      <c r="O71" s="154"/>
+      <c r="P71" s="154"/>
+      <c r="Q71" s="154"/>
+      <c r="R71" s="155"/>
     </row>
     <row r="72" spans="1:18" s="2" customFormat="1" ht="6.75" customHeight="1">
       <c r="A72" s="6"/>
@@ -9398,97 +9402,97 @@
       <c r="R72" s="5"/>
     </row>
     <row r="73" spans="1:18" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="A73" s="157" t="s">
+      <c r="A73" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="157"/>
+      <c r="B73" s="158"/>
       <c r="C73" s="19">
         <f>SUM(G15:G24,P15:P24,G30:G39,P30:P39,G45:G54,P45:P54,G60:G69,P60:P69)</f>
-        <v>360</v>
-      </c>
-      <c r="D73" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="157"/>
-      <c r="F73" s="158">
+      <c r="E73" s="158"/>
+      <c r="F73" s="159">
         <f>SUM(D25,M25,D40,M40,D55,M55,D70,M70)</f>
         <v>0</v>
       </c>
-      <c r="G73" s="159"/>
-      <c r="H73" s="157" t="s">
+      <c r="G73" s="160"/>
+      <c r="H73" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="I73" s="157"/>
-      <c r="J73" s="20">
+      <c r="I73" s="158"/>
+      <c r="J73" s="20" t="e">
         <f>F73/C73</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K73" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L73" s="22">
+      <c r="L73" s="22" t="e">
         <f>J73*4/100</f>
-        <v>0</v>
-      </c>
-      <c r="M73" s="157" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M73" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="N73" s="157"/>
-      <c r="O73" s="159" t="b">
+      <c r="N73" s="158"/>
+      <c r="O73" s="160" t="e">
         <f>IF(J73&gt;89,"A",IF(J73&gt;79,"B",IF(J73&gt;69,"C",IF(J73&gt;54,"D"))))</f>
-        <v>0</v>
-      </c>
-      <c r="P73" s="159"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P73" s="160"/>
       <c r="Q73" s="23"/>
       <c r="R73" s="23"/>
     </row>
     <row r="74" spans="1:18" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A74" s="155" t="s">
+      <c r="A74" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="155"/>
-      <c r="C74" s="155"/>
-      <c r="D74" s="155" t="s">
+      <c r="B74" s="156"/>
+      <c r="C74" s="156"/>
+      <c r="D74" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="155"/>
-      <c r="F74" s="155"/>
-      <c r="G74" s="155"/>
-      <c r="H74" s="155"/>
-      <c r="I74" s="155" t="s">
+      <c r="E74" s="156"/>
+      <c r="F74" s="156"/>
+      <c r="G74" s="156"/>
+      <c r="H74" s="156"/>
+      <c r="I74" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="J74" s="155"/>
-      <c r="K74" s="155"/>
-      <c r="L74" s="155"/>
-      <c r="M74" s="156" t="s">
+      <c r="J74" s="156"/>
+      <c r="K74" s="156"/>
+      <c r="L74" s="156"/>
+      <c r="M74" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="N74" s="156"/>
-      <c r="O74" s="156"/>
-      <c r="P74" s="156"/>
-      <c r="Q74" s="156"/>
-      <c r="R74" s="156"/>
+      <c r="N74" s="157"/>
+      <c r="O74" s="157"/>
+      <c r="P74" s="157"/>
+      <c r="Q74" s="157"/>
+      <c r="R74" s="157"/>
     </row>
     <row r="75" spans="1:18" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="155" t="s">
+      <c r="A75" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="155"/>
-      <c r="C75" s="155"/>
-      <c r="D75" s="155" t="s">
+      <c r="B75" s="156"/>
+      <c r="C75" s="156"/>
+      <c r="D75" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="E75" s="155"/>
-      <c r="F75" s="155"/>
-      <c r="G75" s="155"/>
-      <c r="H75" s="155"/>
-      <c r="I75" s="156" t="s">
+      <c r="E75" s="156"/>
+      <c r="F75" s="156"/>
+      <c r="G75" s="156"/>
+      <c r="H75" s="156"/>
+      <c r="I75" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="J75" s="156"/>
-      <c r="K75" s="156"/>
-      <c r="L75" s="156"/>
+      <c r="J75" s="157"/>
+      <c r="K75" s="157"/>
+      <c r="L75" s="157"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
@@ -9637,64 +9641,64 @@
       <c r="R82" s="5"/>
     </row>
     <row r="83" spans="1:18" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A83" s="113" t="s">
+      <c r="A83" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="113"/>
-      <c r="C83" s="113"/>
-      <c r="D83" s="113" t="str">
+      <c r="B83" s="114"/>
+      <c r="C83" s="114"/>
+      <c r="D83" s="114" t="str">
         <f>C5</f>
         <v/>
       </c>
-      <c r="E83" s="113"/>
-      <c r="F83" s="113"/>
-      <c r="G83" s="113"/>
-      <c r="H83" s="113"/>
-      <c r="I83" s="113"/>
-      <c r="J83" s="113" t="s">
+      <c r="E83" s="114"/>
+      <c r="F83" s="114"/>
+      <c r="G83" s="114"/>
+      <c r="H83" s="114"/>
+      <c r="I83" s="114"/>
+      <c r="J83" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="113"/>
-      <c r="L83" s="113"/>
-      <c r="M83" s="106" t="str">
+      <c r="K83" s="114"/>
+      <c r="L83" s="114"/>
+      <c r="M83" s="107" t="str">
         <f>C7</f>
         <v/>
       </c>
-      <c r="N83" s="106"/>
-      <c r="O83" s="106"/>
-      <c r="P83" s="106"/>
-      <c r="Q83" s="106"/>
-      <c r="R83" s="106"/>
+      <c r="N83" s="107"/>
+      <c r="O83" s="107"/>
+      <c r="P83" s="107"/>
+      <c r="Q83" s="107"/>
+      <c r="R83" s="107"/>
     </row>
     <row r="84" spans="1:18" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A84" s="113" t="s">
+      <c r="A84" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="113"/>
-      <c r="C84" s="113"/>
-      <c r="D84" s="113" t="str">
+      <c r="B84" s="114"/>
+      <c r="C84" s="114"/>
+      <c r="D84" s="114" t="str">
         <f>C6</f>
         <v/>
       </c>
-      <c r="E84" s="113"/>
-      <c r="F84" s="113"/>
-      <c r="G84" s="113"/>
-      <c r="H84" s="113"/>
-      <c r="I84" s="113"/>
-      <c r="J84" s="113" t="s">
+      <c r="E84" s="114"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="114"/>
+      <c r="H84" s="114"/>
+      <c r="I84" s="114"/>
+      <c r="J84" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="K84" s="113"/>
-      <c r="L84" s="113"/>
-      <c r="M84" s="106" t="str">
+      <c r="K84" s="114"/>
+      <c r="L84" s="114"/>
+      <c r="M84" s="107" t="str">
         <f>L5</f>
         <v>EDUCATION FACULTY</v>
       </c>
-      <c r="N84" s="106"/>
-      <c r="O84" s="106"/>
-      <c r="P84" s="106"/>
-      <c r="Q84" s="106"/>
-      <c r="R84" s="106"/>
+      <c r="N84" s="107"/>
+      <c r="O84" s="107"/>
+      <c r="P84" s="107"/>
+      <c r="Q84" s="107"/>
+      <c r="R84" s="107"/>
     </row>
     <row r="85" spans="1:18" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A85" s="6"/>
@@ -9717,612 +9721,612 @@
       <c r="R85" s="5"/>
     </row>
     <row r="86" spans="1:18" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A86" s="160" t="s">
+      <c r="A86" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="B86" s="160"/>
-      <c r="C86" s="160"/>
-      <c r="D86" s="160"/>
-      <c r="E86" s="160"/>
-      <c r="F86" s="160"/>
-      <c r="G86" s="160"/>
-      <c r="H86" s="160"/>
-      <c r="I86" s="160"/>
-      <c r="J86" s="160"/>
-      <c r="K86" s="160"/>
-      <c r="L86" s="160"/>
-      <c r="M86" s="160"/>
-      <c r="N86" s="160"/>
-      <c r="O86" s="160"/>
-      <c r="P86" s="160"/>
-      <c r="Q86" s="160"/>
-      <c r="R86" s="160"/>
+      <c r="B86" s="161"/>
+      <c r="C86" s="161"/>
+      <c r="D86" s="161"/>
+      <c r="E86" s="161"/>
+      <c r="F86" s="161"/>
+      <c r="G86" s="161"/>
+      <c r="H86" s="161"/>
+      <c r="I86" s="161"/>
+      <c r="J86" s="161"/>
+      <c r="K86" s="161"/>
+      <c r="L86" s="161"/>
+      <c r="M86" s="161"/>
+      <c r="N86" s="161"/>
+      <c r="O86" s="161"/>
+      <c r="P86" s="161"/>
+      <c r="Q86" s="161"/>
+      <c r="R86" s="161"/>
     </row>
     <row r="87" spans="1:18" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A87" s="161" t="s">
+      <c r="A87" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="B87" s="161"/>
-      <c r="C87" s="161"/>
-      <c r="D87" s="161"/>
-      <c r="E87" s="161"/>
-      <c r="F87" s="161"/>
+      <c r="B87" s="162"/>
+      <c r="C87" s="162"/>
+      <c r="D87" s="162"/>
+      <c r="E87" s="162"/>
+      <c r="F87" s="162"/>
     </row>
     <row r="88" spans="1:18" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A88" s="161" t="s">
+      <c r="A88" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="B88" s="161"/>
-      <c r="C88" s="161"/>
-      <c r="D88" s="161"/>
-      <c r="E88" s="161"/>
-      <c r="F88" s="161"/>
+      <c r="B88" s="162"/>
+      <c r="C88" s="162"/>
+      <c r="D88" s="162"/>
+      <c r="E88" s="162"/>
+      <c r="F88" s="162"/>
     </row>
     <row r="89" spans="1:18" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A89" s="161" t="s">
+      <c r="A89" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="B89" s="161"/>
-      <c r="C89" s="161"/>
-      <c r="D89" s="161"/>
-      <c r="E89" s="161"/>
-      <c r="F89" s="161"/>
+      <c r="B89" s="162"/>
+      <c r="C89" s="162"/>
+      <c r="D89" s="162"/>
+      <c r="E89" s="162"/>
+      <c r="F89" s="162"/>
     </row>
     <row r="90" spans="1:18" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A90" s="161" t="s">
+      <c r="A90" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="B90" s="161"/>
-      <c r="C90" s="161"/>
-      <c r="D90" s="161"/>
-      <c r="E90" s="161"/>
-      <c r="F90" s="161"/>
+      <c r="B90" s="162"/>
+      <c r="C90" s="162"/>
+      <c r="D90" s="162"/>
+      <c r="E90" s="162"/>
+      <c r="F90" s="162"/>
     </row>
     <row r="91" spans="1:18" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A91" s="161" t="s">
+      <c r="A91" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="B91" s="161"/>
-      <c r="C91" s="161"/>
-      <c r="D91" s="161"/>
+      <c r="B91" s="162"/>
+      <c r="C91" s="162"/>
+      <c r="D91" s="162"/>
     </row>
     <row r="92" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A92" s="162" t="s">
+      <c r="A92" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="B92" s="162"/>
-      <c r="C92" s="162"/>
+      <c r="B92" s="163"/>
+      <c r="C92" s="163"/>
       <c r="D92" s="35">
         <f>O9</f>
         <v>0</v>
       </c>
-      <c r="E92" s="114" t="s">
+      <c r="E92" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="F92" s="114"/>
-      <c r="G92" s="114"/>
-      <c r="H92" s="114"/>
-      <c r="J92" s="114" t="s">
+      <c r="F92" s="115"/>
+      <c r="G92" s="115"/>
+      <c r="H92" s="115"/>
+      <c r="J92" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="K92" s="114"/>
-      <c r="L92" s="163">
+      <c r="K92" s="115"/>
+      <c r="L92" s="164" t="e">
         <f>J73</f>
-        <v>0</v>
-      </c>
-      <c r="M92" s="163"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M92" s="164"/>
     </row>
     <row r="93" spans="1:18" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A93" s="166" t="s">
+      <c r="A93" s="167" t="s">
         <v>192</v>
       </c>
-      <c r="B93" s="166"/>
-      <c r="C93" s="166"/>
-      <c r="D93" s="166"/>
-      <c r="E93" s="166"/>
-      <c r="F93" s="166"/>
-      <c r="G93" s="166"/>
-      <c r="H93" s="166"/>
-      <c r="I93" s="166"/>
-      <c r="J93" s="166"/>
-      <c r="K93" s="166"/>
-      <c r="L93" s="166"/>
-      <c r="M93" s="166"/>
-      <c r="N93" s="166"/>
-      <c r="O93" s="166"/>
-      <c r="P93" s="166"/>
-      <c r="Q93" s="166"/>
-      <c r="R93" s="166"/>
+      <c r="B93" s="167"/>
+      <c r="C93" s="167"/>
+      <c r="D93" s="167"/>
+      <c r="E93" s="167"/>
+      <c r="F93" s="167"/>
+      <c r="G93" s="167"/>
+      <c r="H93" s="167"/>
+      <c r="I93" s="167"/>
+      <c r="J93" s="167"/>
+      <c r="K93" s="167"/>
+      <c r="L93" s="167"/>
+      <c r="M93" s="167"/>
+      <c r="N93" s="167"/>
+      <c r="O93" s="167"/>
+      <c r="P93" s="167"/>
+      <c r="Q93" s="167"/>
+      <c r="R93" s="167"/>
     </row>
     <row r="94" spans="1:18" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A94" s="164" t="s">
+      <c r="A94" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="B94" s="165"/>
-      <c r="C94" s="165"/>
-      <c r="D94" s="165"/>
-      <c r="E94" s="165"/>
-      <c r="F94" s="165" t="s">
+      <c r="B94" s="166"/>
+      <c r="C94" s="166"/>
+      <c r="D94" s="166"/>
+      <c r="E94" s="166"/>
+      <c r="F94" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="G94" s="165"/>
-      <c r="H94" s="165" t="s">
+      <c r="G94" s="166"/>
+      <c r="H94" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="I94" s="165"/>
-      <c r="J94" s="165" t="s">
+      <c r="I94" s="166"/>
+      <c r="J94" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="K94" s="165"/>
-      <c r="L94" s="165" t="s">
+      <c r="K94" s="166"/>
+      <c r="L94" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="M94" s="165"/>
-      <c r="N94" s="165"/>
-      <c r="O94" s="165" t="s">
+      <c r="M94" s="166"/>
+      <c r="N94" s="166"/>
+      <c r="O94" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="P94" s="165"/>
-      <c r="Q94" s="165"/>
-      <c r="R94" s="174"/>
+      <c r="P94" s="166"/>
+      <c r="Q94" s="166"/>
+      <c r="R94" s="175"/>
     </row>
     <row r="95" spans="1:18" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A95" s="172" t="s">
+      <c r="A95" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="B95" s="173"/>
-      <c r="C95" s="173"/>
-      <c r="D95" s="173"/>
-      <c r="E95" s="173"/>
-      <c r="F95" s="169" t="s">
+      <c r="B95" s="174"/>
+      <c r="C95" s="174"/>
+      <c r="D95" s="174"/>
+      <c r="E95" s="174"/>
+      <c r="F95" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="G95" s="169"/>
-      <c r="H95" s="169" t="s">
+      <c r="G95" s="170"/>
+      <c r="H95" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="I95" s="169"/>
-      <c r="J95" s="170" t="s">
+      <c r="I95" s="170"/>
+      <c r="J95" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="K95" s="170"/>
-      <c r="L95" s="170" t="s">
+      <c r="K95" s="171"/>
+      <c r="L95" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="M95" s="170"/>
-      <c r="N95" s="170"/>
-      <c r="O95" s="170" t="s">
+      <c r="M95" s="171"/>
+      <c r="N95" s="171"/>
+      <c r="O95" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="P95" s="170"/>
-      <c r="Q95" s="170"/>
-      <c r="R95" s="171"/>
+      <c r="P95" s="171"/>
+      <c r="Q95" s="171"/>
+      <c r="R95" s="172"/>
     </row>
     <row r="96" spans="1:18" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A96" s="172" t="s">
+      <c r="A96" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="B96" s="173"/>
-      <c r="C96" s="173"/>
-      <c r="D96" s="173"/>
-      <c r="E96" s="173"/>
-      <c r="F96" s="169" t="s">
+      <c r="B96" s="174"/>
+      <c r="C96" s="174"/>
+      <c r="D96" s="174"/>
+      <c r="E96" s="174"/>
+      <c r="F96" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="G96" s="169"/>
-      <c r="H96" s="169" t="s">
+      <c r="G96" s="170"/>
+      <c r="H96" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="I96" s="169"/>
-      <c r="J96" s="170" t="s">
+      <c r="I96" s="170"/>
+      <c r="J96" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="K96" s="170"/>
-      <c r="L96" s="170" t="s">
+      <c r="K96" s="171"/>
+      <c r="L96" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="M96" s="170"/>
-      <c r="N96" s="170"/>
-      <c r="O96" s="170" t="s">
+      <c r="M96" s="171"/>
+      <c r="N96" s="171"/>
+      <c r="O96" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="P96" s="170"/>
-      <c r="Q96" s="170"/>
-      <c r="R96" s="171"/>
+      <c r="P96" s="171"/>
+      <c r="Q96" s="171"/>
+      <c r="R96" s="172"/>
     </row>
     <row r="97" spans="1:18" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A97" s="172" t="s">
+      <c r="A97" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="B97" s="173"/>
-      <c r="C97" s="173"/>
-      <c r="D97" s="173"/>
-      <c r="E97" s="173"/>
-      <c r="F97" s="169" t="s">
+      <c r="B97" s="174"/>
+      <c r="C97" s="174"/>
+      <c r="D97" s="174"/>
+      <c r="E97" s="174"/>
+      <c r="F97" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="G97" s="169"/>
-      <c r="H97" s="169" t="s">
+      <c r="G97" s="170"/>
+      <c r="H97" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="I97" s="169"/>
-      <c r="J97" s="170" t="s">
+      <c r="I97" s="170"/>
+      <c r="J97" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="K97" s="170"/>
-      <c r="L97" s="170" t="s">
+      <c r="K97" s="171"/>
+      <c r="L97" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="M97" s="170"/>
-      <c r="N97" s="170"/>
-      <c r="O97" s="170" t="s">
+      <c r="M97" s="171"/>
+      <c r="N97" s="171"/>
+      <c r="O97" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="P97" s="170"/>
-      <c r="Q97" s="170"/>
-      <c r="R97" s="171"/>
+      <c r="P97" s="171"/>
+      <c r="Q97" s="171"/>
+      <c r="R97" s="172"/>
     </row>
     <row r="98" spans="1:18" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A98" s="167" t="s">
+      <c r="A98" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="B98" s="168"/>
-      <c r="C98" s="168"/>
-      <c r="D98" s="168"/>
-      <c r="E98" s="168"/>
-      <c r="F98" s="169" t="s">
+      <c r="B98" s="169"/>
+      <c r="C98" s="169"/>
+      <c r="D98" s="169"/>
+      <c r="E98" s="169"/>
+      <c r="F98" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="G98" s="169"/>
-      <c r="H98" s="169" t="s">
+      <c r="G98" s="170"/>
+      <c r="H98" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="I98" s="169"/>
-      <c r="J98" s="170" t="s">
+      <c r="I98" s="170"/>
+      <c r="J98" s="171" t="s">
         <v>78</v>
       </c>
-      <c r="K98" s="170"/>
-      <c r="L98" s="170" t="s">
+      <c r="K98" s="171"/>
+      <c r="L98" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="M98" s="170"/>
-      <c r="N98" s="170"/>
-      <c r="O98" s="170" t="s">
+      <c r="M98" s="171"/>
+      <c r="N98" s="171"/>
+      <c r="O98" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="P98" s="170"/>
-      <c r="Q98" s="170"/>
-      <c r="R98" s="171"/>
+      <c r="P98" s="171"/>
+      <c r="Q98" s="171"/>
+      <c r="R98" s="172"/>
     </row>
     <row r="99" spans="1:18" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A99" s="176" t="s">
+      <c r="A99" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="B99" s="177"/>
-      <c r="C99" s="177"/>
-      <c r="D99" s="177"/>
-      <c r="E99" s="177"/>
-      <c r="F99" s="178" t="s">
+      <c r="B99" s="178"/>
+      <c r="C99" s="178"/>
+      <c r="D99" s="178"/>
+      <c r="E99" s="178"/>
+      <c r="F99" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="G99" s="178"/>
-      <c r="H99" s="178" t="s">
+      <c r="G99" s="179"/>
+      <c r="H99" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="I99" s="178"/>
-      <c r="J99" s="179" t="s">
+      <c r="I99" s="179"/>
+      <c r="J99" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="K99" s="179"/>
-      <c r="L99" s="179" t="s">
+      <c r="K99" s="180"/>
+      <c r="L99" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="M99" s="179"/>
-      <c r="N99" s="179"/>
-      <c r="O99" s="179" t="s">
+      <c r="M99" s="180"/>
+      <c r="N99" s="180"/>
+      <c r="O99" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="P99" s="179"/>
-      <c r="Q99" s="179"/>
-      <c r="R99" s="180"/>
+      <c r="P99" s="180"/>
+      <c r="Q99" s="180"/>
+      <c r="R99" s="181"/>
     </row>
     <row r="100" spans="1:18" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="B100" s="166"/>
-      <c r="C100" s="166"/>
-      <c r="D100" s="166"/>
-      <c r="E100" s="166"/>
-      <c r="F100" s="166"/>
-      <c r="G100" s="166"/>
-      <c r="H100" s="166"/>
-      <c r="I100" s="166"/>
-      <c r="J100" s="166"/>
-      <c r="K100" s="166"/>
-      <c r="L100" s="166"/>
-      <c r="M100" s="166"/>
-      <c r="N100" s="166"/>
-      <c r="O100" s="166"/>
-      <c r="P100" s="166"/>
-      <c r="Q100" s="166"/>
-      <c r="R100" s="166"/>
+      <c r="B100" s="167"/>
+      <c r="C100" s="167"/>
+      <c r="D100" s="167"/>
+      <c r="E100" s="167"/>
+      <c r="F100" s="167"/>
+      <c r="G100" s="167"/>
+      <c r="H100" s="167"/>
+      <c r="I100" s="167"/>
+      <c r="J100" s="167"/>
+      <c r="K100" s="167"/>
+      <c r="L100" s="167"/>
+      <c r="M100" s="167"/>
+      <c r="N100" s="167"/>
+      <c r="O100" s="167"/>
+      <c r="P100" s="167"/>
+      <c r="Q100" s="167"/>
+      <c r="R100" s="167"/>
     </row>
     <row r="101" spans="1:18" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A101" s="104" t="s">
+      <c r="A101" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="B101" s="104"/>
-      <c r="C101" s="104"/>
-      <c r="D101" s="104"/>
-      <c r="E101" s="104"/>
-      <c r="F101" s="104"/>
-      <c r="G101" s="104"/>
-      <c r="H101" s="104"/>
-      <c r="I101" s="104"/>
-      <c r="J101" s="104" t="s">
+      <c r="B101" s="105"/>
+      <c r="C101" s="105"/>
+      <c r="D101" s="105"/>
+      <c r="E101" s="105"/>
+      <c r="F101" s="105"/>
+      <c r="G101" s="105"/>
+      <c r="H101" s="105"/>
+      <c r="I101" s="105"/>
+      <c r="J101" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="K101" s="104"/>
-      <c r="L101" s="104"/>
-      <c r="M101" s="104"/>
-      <c r="N101" s="104"/>
-      <c r="O101" s="104"/>
-      <c r="P101" s="104"/>
-      <c r="Q101" s="104"/>
-      <c r="R101" s="104"/>
+      <c r="K101" s="105"/>
+      <c r="L101" s="105"/>
+      <c r="M101" s="105"/>
+      <c r="N101" s="105"/>
+      <c r="O101" s="105"/>
+      <c r="P101" s="105"/>
+      <c r="Q101" s="105"/>
+      <c r="R101" s="105"/>
     </row>
     <row r="102" spans="1:18" s="33" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A102" s="104" t="s">
+      <c r="A102" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="B102" s="104"/>
-      <c r="C102" s="104"/>
-      <c r="D102" s="104"/>
-      <c r="E102" s="104"/>
-      <c r="F102" s="104"/>
-      <c r="G102" s="104"/>
-      <c r="H102" s="104"/>
-      <c r="I102" s="104"/>
-      <c r="J102" s="104" t="s">
+      <c r="B102" s="105"/>
+      <c r="C102" s="105"/>
+      <c r="D102" s="105"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="105"/>
+      <c r="G102" s="105"/>
+      <c r="H102" s="105"/>
+      <c r="I102" s="105"/>
+      <c r="J102" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="K102" s="104"/>
-      <c r="L102" s="104"/>
-      <c r="M102" s="104"/>
-      <c r="N102" s="104"/>
-      <c r="O102" s="104"/>
-      <c r="P102" s="104"/>
-      <c r="Q102" s="104"/>
-      <c r="R102" s="104"/>
+      <c r="K102" s="105"/>
+      <c r="L102" s="105"/>
+      <c r="M102" s="105"/>
+      <c r="N102" s="105"/>
+      <c r="O102" s="105"/>
+      <c r="P102" s="105"/>
+      <c r="Q102" s="105"/>
+      <c r="R102" s="105"/>
     </row>
     <row r="103" spans="1:18" s="33" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A103" s="104" t="s">
+      <c r="A103" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="B103" s="104"/>
-      <c r="C103" s="104"/>
-      <c r="D103" s="104"/>
-      <c r="E103" s="104"/>
-      <c r="F103" s="104"/>
-      <c r="G103" s="104"/>
-      <c r="H103" s="104"/>
-      <c r="I103" s="104"/>
-      <c r="J103" s="104" t="s">
+      <c r="B103" s="105"/>
+      <c r="C103" s="105"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="105"/>
+      <c r="H103" s="105"/>
+      <c r="I103" s="105"/>
+      <c r="J103" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="K103" s="104"/>
-      <c r="L103" s="104"/>
-      <c r="M103" s="104"/>
-      <c r="N103" s="104"/>
-      <c r="O103" s="104"/>
-      <c r="P103" s="104"/>
-      <c r="Q103" s="104"/>
-      <c r="R103" s="104"/>
+      <c r="K103" s="105"/>
+      <c r="L103" s="105"/>
+      <c r="M103" s="105"/>
+      <c r="N103" s="105"/>
+      <c r="O103" s="105"/>
+      <c r="P103" s="105"/>
+      <c r="Q103" s="105"/>
+      <c r="R103" s="105"/>
     </row>
     <row r="104" spans="1:18" s="33" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A104" s="104" t="s">
+      <c r="A104" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="B104" s="104"/>
-      <c r="C104" s="104"/>
-      <c r="D104" s="104"/>
-      <c r="E104" s="104"/>
-      <c r="F104" s="104"/>
-      <c r="G104" s="104"/>
-      <c r="H104" s="104"/>
-      <c r="I104" s="104"/>
-      <c r="J104" s="104" t="s">
+      <c r="B104" s="105"/>
+      <c r="C104" s="105"/>
+      <c r="D104" s="105"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="105"/>
+      <c r="G104" s="105"/>
+      <c r="H104" s="105"/>
+      <c r="I104" s="105"/>
+      <c r="J104" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="K104" s="104"/>
-      <c r="L104" s="104"/>
-      <c r="M104" s="104"/>
-      <c r="N104" s="104"/>
-      <c r="O104" s="104"/>
-      <c r="P104" s="104"/>
-      <c r="Q104" s="104"/>
-      <c r="R104" s="104"/>
+      <c r="K104" s="105"/>
+      <c r="L104" s="105"/>
+      <c r="M104" s="105"/>
+      <c r="N104" s="105"/>
+      <c r="O104" s="105"/>
+      <c r="P104" s="105"/>
+      <c r="Q104" s="105"/>
+      <c r="R104" s="105"/>
     </row>
     <row r="105" spans="1:18" s="33" customFormat="1" ht="30" customHeight="1">
-      <c r="A105" s="104" t="s">
+      <c r="A105" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="B105" s="104"/>
-      <c r="C105" s="104"/>
-      <c r="D105" s="104"/>
-      <c r="E105" s="104"/>
-      <c r="F105" s="104"/>
-      <c r="G105" s="104"/>
-      <c r="H105" s="104"/>
-      <c r="I105" s="104"/>
-      <c r="J105" s="104" t="s">
+      <c r="B105" s="105"/>
+      <c r="C105" s="105"/>
+      <c r="D105" s="105"/>
+      <c r="E105" s="105"/>
+      <c r="F105" s="105"/>
+      <c r="G105" s="105"/>
+      <c r="H105" s="105"/>
+      <c r="I105" s="105"/>
+      <c r="J105" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="K105" s="104"/>
-      <c r="L105" s="104"/>
-      <c r="M105" s="104"/>
-      <c r="N105" s="104"/>
-      <c r="O105" s="104"/>
-      <c r="P105" s="104"/>
-      <c r="Q105" s="104"/>
-      <c r="R105" s="104"/>
+      <c r="K105" s="105"/>
+      <c r="L105" s="105"/>
+      <c r="M105" s="105"/>
+      <c r="N105" s="105"/>
+      <c r="O105" s="105"/>
+      <c r="P105" s="105"/>
+      <c r="Q105" s="105"/>
+      <c r="R105" s="105"/>
     </row>
     <row r="106" spans="1:18" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A106" s="105" t="s">
+      <c r="A106" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="B106" s="105"/>
-      <c r="C106" s="105"/>
-      <c r="D106" s="105"/>
-      <c r="E106" s="105"/>
-      <c r="F106" s="105"/>
-      <c r="G106" s="105"/>
-      <c r="H106" s="105"/>
-      <c r="I106" s="105"/>
-      <c r="J106" s="105"/>
-      <c r="K106" s="105"/>
-      <c r="L106" s="105"/>
-      <c r="M106" s="105"/>
-      <c r="N106" s="105"/>
-      <c r="O106" s="105"/>
-      <c r="P106" s="105"/>
-      <c r="Q106" s="105"/>
-      <c r="R106" s="105"/>
+      <c r="B106" s="106"/>
+      <c r="C106" s="106"/>
+      <c r="D106" s="106"/>
+      <c r="E106" s="106"/>
+      <c r="F106" s="106"/>
+      <c r="G106" s="106"/>
+      <c r="H106" s="106"/>
+      <c r="I106" s="106"/>
+      <c r="J106" s="106"/>
+      <c r="K106" s="106"/>
+      <c r="L106" s="106"/>
+      <c r="M106" s="106"/>
+      <c r="N106" s="106"/>
+      <c r="O106" s="106"/>
+      <c r="P106" s="106"/>
+      <c r="Q106" s="106"/>
+      <c r="R106" s="106"/>
     </row>
     <row r="107" spans="1:18" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A107" s="181" t="s">
+      <c r="A107" s="182" t="s">
         <v>179</v>
       </c>
-      <c r="B107" s="181"/>
-      <c r="C107" s="181"/>
-      <c r="D107" s="181"/>
-      <c r="E107" s="181"/>
-      <c r="F107" s="181"/>
-      <c r="G107" s="181"/>
-      <c r="H107" s="181"/>
-      <c r="I107" s="181"/>
-      <c r="J107" s="181"/>
-      <c r="K107" s="181"/>
-      <c r="L107" s="181"/>
-      <c r="M107" s="181"/>
-      <c r="N107" s="181"/>
-      <c r="O107" s="181"/>
-      <c r="P107" s="181"/>
-      <c r="Q107" s="181"/>
-      <c r="R107" s="181"/>
+      <c r="B107" s="182"/>
+      <c r="C107" s="182"/>
+      <c r="D107" s="182"/>
+      <c r="E107" s="182"/>
+      <c r="F107" s="182"/>
+      <c r="G107" s="182"/>
+      <c r="H107" s="182"/>
+      <c r="I107" s="182"/>
+      <c r="J107" s="182"/>
+      <c r="K107" s="182"/>
+      <c r="L107" s="182"/>
+      <c r="M107" s="182"/>
+      <c r="N107" s="182"/>
+      <c r="O107" s="182"/>
+      <c r="P107" s="182"/>
+      <c r="Q107" s="182"/>
+      <c r="R107" s="182"/>
     </row>
     <row r="108" spans="1:18" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A108" s="105" t="s">
+      <c r="A108" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="105"/>
-      <c r="C108" s="105"/>
-      <c r="D108" s="105"/>
-      <c r="E108" s="105"/>
-      <c r="F108" s="105"/>
-      <c r="G108" s="105"/>
-      <c r="H108" s="105"/>
-      <c r="I108" s="105"/>
-      <c r="J108" s="105"/>
-      <c r="K108" s="105"/>
-      <c r="L108" s="105"/>
-      <c r="M108" s="105"/>
-      <c r="N108" s="105"/>
-      <c r="O108" s="105"/>
-      <c r="P108" s="105"/>
-      <c r="Q108" s="105"/>
-      <c r="R108" s="105"/>
+      <c r="B108" s="106"/>
+      <c r="C108" s="106"/>
+      <c r="D108" s="106"/>
+      <c r="E108" s="106"/>
+      <c r="F108" s="106"/>
+      <c r="G108" s="106"/>
+      <c r="H108" s="106"/>
+      <c r="I108" s="106"/>
+      <c r="J108" s="106"/>
+      <c r="K108" s="106"/>
+      <c r="L108" s="106"/>
+      <c r="M108" s="106"/>
+      <c r="N108" s="106"/>
+      <c r="O108" s="106"/>
+      <c r="P108" s="106"/>
+      <c r="Q108" s="106"/>
+      <c r="R108" s="106"/>
     </row>
     <row r="109" spans="1:18" s="33" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A109" s="181" t="s">
+      <c r="A109" s="182" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="181"/>
-      <c r="C109" s="181"/>
-      <c r="D109" s="181"/>
-      <c r="E109" s="181"/>
-      <c r="F109" s="181"/>
-      <c r="G109" s="181"/>
-      <c r="H109" s="181"/>
-      <c r="I109" s="181"/>
-      <c r="J109" s="181"/>
-      <c r="K109" s="181"/>
-      <c r="L109" s="181"/>
-      <c r="M109" s="181"/>
-      <c r="N109" s="181"/>
-      <c r="O109" s="181"/>
-      <c r="P109" s="181"/>
-      <c r="Q109" s="181"/>
-      <c r="R109" s="181"/>
+      <c r="B109" s="182"/>
+      <c r="C109" s="182"/>
+      <c r="D109" s="182"/>
+      <c r="E109" s="182"/>
+      <c r="F109" s="182"/>
+      <c r="G109" s="182"/>
+      <c r="H109" s="182"/>
+      <c r="I109" s="182"/>
+      <c r="J109" s="182"/>
+      <c r="K109" s="182"/>
+      <c r="L109" s="182"/>
+      <c r="M109" s="182"/>
+      <c r="N109" s="182"/>
+      <c r="O109" s="182"/>
+      <c r="P109" s="182"/>
+      <c r="Q109" s="182"/>
+      <c r="R109" s="182"/>
     </row>
     <row r="110" spans="1:18" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A110" s="105" t="s">
+      <c r="A110" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B110" s="105"/>
-      <c r="C110" s="105"/>
-      <c r="D110" s="105"/>
-      <c r="E110" s="105"/>
-      <c r="F110" s="105"/>
-      <c r="G110" s="105"/>
-      <c r="H110" s="105"/>
-      <c r="I110" s="105"/>
-      <c r="J110" s="105"/>
-      <c r="K110" s="105"/>
-      <c r="L110" s="105"/>
-      <c r="M110" s="105"/>
-      <c r="N110" s="105"/>
-      <c r="O110" s="105"/>
-      <c r="P110" s="105"/>
-      <c r="Q110" s="105"/>
-      <c r="R110" s="105"/>
+      <c r="B110" s="106"/>
+      <c r="C110" s="106"/>
+      <c r="D110" s="106"/>
+      <c r="E110" s="106"/>
+      <c r="F110" s="106"/>
+      <c r="G110" s="106"/>
+      <c r="H110" s="106"/>
+      <c r="I110" s="106"/>
+      <c r="J110" s="106"/>
+      <c r="K110" s="106"/>
+      <c r="L110" s="106"/>
+      <c r="M110" s="106"/>
+      <c r="N110" s="106"/>
+      <c r="O110" s="106"/>
+      <c r="P110" s="106"/>
+      <c r="Q110" s="106"/>
+      <c r="R110" s="106"/>
     </row>
     <row r="111" spans="1:18" s="33" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A111" s="181" t="s">
+      <c r="A111" s="182" t="s">
         <v>193</v>
       </c>
-      <c r="B111" s="181"/>
-      <c r="C111" s="181"/>
-      <c r="D111" s="181"/>
-      <c r="E111" s="181"/>
-      <c r="F111" s="181"/>
-      <c r="G111" s="181"/>
-      <c r="H111" s="181"/>
-      <c r="I111" s="181"/>
-      <c r="J111" s="181"/>
-      <c r="K111" s="181"/>
-      <c r="L111" s="181"/>
-      <c r="M111" s="181"/>
-      <c r="N111" s="181"/>
-      <c r="O111" s="181"/>
-      <c r="P111" s="181"/>
-      <c r="Q111" s="181"/>
-      <c r="R111" s="181"/>
+      <c r="B111" s="182"/>
+      <c r="C111" s="182"/>
+      <c r="D111" s="182"/>
+      <c r="E111" s="182"/>
+      <c r="F111" s="182"/>
+      <c r="G111" s="182"/>
+      <c r="H111" s="182"/>
+      <c r="I111" s="182"/>
+      <c r="J111" s="182"/>
+      <c r="K111" s="182"/>
+      <c r="L111" s="182"/>
+      <c r="M111" s="182"/>
+      <c r="N111" s="182"/>
+      <c r="O111" s="182"/>
+      <c r="P111" s="182"/>
+      <c r="Q111" s="182"/>
+      <c r="R111" s="182"/>
     </row>
     <row r="114" spans="1:18" s="35" customFormat="1" ht="21" customHeight="1">
-      <c r="A114" s="175" t="s">
+      <c r="A114" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="B114" s="175"/>
-      <c r="C114" s="175"/>
-      <c r="D114" s="160" t="s">
+      <c r="B114" s="176"/>
+      <c r="C114" s="176"/>
+      <c r="D114" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="E114" s="160"/>
-      <c r="F114" s="160"/>
-      <c r="G114" s="160"/>
-      <c r="H114" s="160"/>
-      <c r="I114" s="160"/>
-      <c r="J114" s="160"/>
-      <c r="K114" s="160"/>
-      <c r="L114" s="160"/>
-      <c r="M114" s="160"/>
-      <c r="N114" s="160"/>
-      <c r="O114" s="160"/>
-      <c r="P114" s="160"/>
-      <c r="Q114" s="160"/>
-      <c r="R114" s="160"/>
+      <c r="E114" s="161"/>
+      <c r="F114" s="161"/>
+      <c r="G114" s="161"/>
+      <c r="H114" s="161"/>
+      <c r="I114" s="161"/>
+      <c r="J114" s="161"/>
+      <c r="K114" s="161"/>
+      <c r="L114" s="161"/>
+      <c r="M114" s="161"/>
+      <c r="N114" s="161"/>
+      <c r="O114" s="161"/>
+      <c r="P114" s="161"/>
+      <c r="Q114" s="161"/>
+      <c r="R114" s="161"/>
     </row>
     <row r="115" spans="1:18" s="35" customFormat="1" ht="15.75" customHeight="1">
       <c r="A115" s="36"/>
@@ -10345,12 +10349,12 @@
       <c r="R115" s="34"/>
     </row>
     <row r="116" spans="1:18" ht="17.25" customHeight="1">
-      <c r="L116" s="175" t="s">
+      <c r="L116" s="176" t="s">
         <v>195</v>
       </c>
-      <c r="M116" s="175"/>
-      <c r="N116" s="175"/>
-      <c r="O116" s="175"/>
+      <c r="M116" s="176"/>
+      <c r="N116" s="176"/>
+      <c r="O116" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="241">
@@ -10765,43 +10769,43 @@
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
-      <c r="F1" s="241">
+      <c r="F1" s="242">
         <f>Graduation!AA9</f>
         <v>0</v>
       </c>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="222" t="s">
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="223" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="242"/>
-      <c r="O1" s="243"/>
-      <c r="P1" s="243"/>
-      <c r="Q1" s="243"/>
-      <c r="R1" s="243"/>
-      <c r="S1" s="243"/>
-      <c r="T1" s="243"/>
-      <c r="U1" s="243"/>
-      <c r="V1" s="243"/>
-      <c r="W1" s="243"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="245">
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="244"/>
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="244"/>
+      <c r="S1" s="244"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="245"/>
+      <c r="Y1" s="246">
         <f>Graduation!AE1</f>
         <v>0</v>
       </c>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="245"/>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="245"/>
-      <c r="AD1" s="245"/>
-      <c r="AE1" s="220" t="s">
+      <c r="Z1" s="246"/>
+      <c r="AA1" s="246"/>
+      <c r="AB1" s="246"/>
+      <c r="AC1" s="246"/>
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="221" t="s">
         <v>90</v>
       </c>
-      <c r="AF1" s="220"/>
+      <c r="AF1" s="221"/>
     </row>
     <row r="2" spans="1:32" s="30" customFormat="1" ht="26.25" customHeight="1">
       <c r="A2" s="29"/>
@@ -10809,45 +10813,45 @@
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="241">
+      <c r="F2" s="242">
         <f>Graduation!AE11</f>
         <v>0</v>
       </c>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="222" t="s">
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="223" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="214" t="s">
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="245">
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="217"/>
+      <c r="Y2" s="246">
         <f>Graduation!AE5</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="245"/>
-      <c r="AB2" s="245"/>
-      <c r="AC2" s="245"/>
-      <c r="AD2" s="245"/>
-      <c r="AE2" s="220" t="s">
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="246"/>
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="246"/>
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="AF2" s="220"/>
+      <c r="AF2" s="221"/>
     </row>
     <row r="3" spans="1:32" s="30" customFormat="1" ht="26.25" customHeight="1">
       <c r="A3" s="29"/>
@@ -10855,43 +10859,43 @@
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
-      <c r="F3" s="221">
+      <c r="F3" s="222">
         <f>Graduation!AE10</f>
         <v>0</v>
       </c>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="222" t="s">
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="223" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="214"/>
-      <c r="O3" s="215"/>
-      <c r="P3" s="215"/>
-      <c r="Q3" s="215"/>
-      <c r="R3" s="215"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="215"/>
-      <c r="U3" s="215"/>
-      <c r="V3" s="215"/>
-      <c r="W3" s="215"/>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="245">
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="215"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="216"/>
+      <c r="S3" s="216"/>
+      <c r="T3" s="216"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="216"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="246">
         <f>Graduation!AE7</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="245"/>
-      <c r="AA3" s="245"/>
-      <c r="AB3" s="245"/>
-      <c r="AC3" s="245"/>
-      <c r="AD3" s="245"/>
-      <c r="AE3" s="220" t="s">
+      <c r="Z3" s="246"/>
+      <c r="AA3" s="246"/>
+      <c r="AB3" s="246"/>
+      <c r="AC3" s="246"/>
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="221" t="s">
         <v>109</v>
       </c>
-      <c r="AF3" s="220"/>
+      <c r="AF3" s="221"/>
     </row>
     <row r="4" spans="1:32" s="30" customFormat="1" ht="22.5" customHeight="1">
       <c r="A4" s="29"/>
@@ -10899,45 +10903,45 @@
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
-      <c r="F4" s="246">
+      <c r="F4" s="247">
         <f>Graduation!F6</f>
         <v>0</v>
       </c>
-      <c r="G4" s="247"/>
-      <c r="H4" s="248"/>
-      <c r="I4" s="229" t="s">
+      <c r="G4" s="248"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="230" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="230"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="230"/>
-      <c r="M4" s="231"/>
-      <c r="N4" s="214" t="s">
+      <c r="J4" s="231"/>
+      <c r="K4" s="231"/>
+      <c r="L4" s="231"/>
+      <c r="M4" s="232"/>
+      <c r="N4" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="215"/>
-      <c r="R4" s="215"/>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="215"/>
-      <c r="V4" s="215"/>
-      <c r="W4" s="215"/>
-      <c r="X4" s="216"/>
-      <c r="Y4" s="245" t="str">
+      <c r="O4" s="216"/>
+      <c r="P4" s="216"/>
+      <c r="Q4" s="216"/>
+      <c r="R4" s="216"/>
+      <c r="S4" s="216"/>
+      <c r="T4" s="216"/>
+      <c r="U4" s="216"/>
+      <c r="V4" s="216"/>
+      <c r="W4" s="216"/>
+      <c r="X4" s="217"/>
+      <c r="Y4" s="246" t="str">
         <f>Graduation!K7</f>
         <v>ښووني او روزني پوهنځي</v>
       </c>
-      <c r="Z4" s="245"/>
-      <c r="AA4" s="245"/>
-      <c r="AB4" s="245"/>
-      <c r="AC4" s="245"/>
-      <c r="AD4" s="245"/>
-      <c r="AE4" s="220" t="s">
+      <c r="Z4" s="246"/>
+      <c r="AA4" s="246"/>
+      <c r="AB4" s="246"/>
+      <c r="AC4" s="246"/>
+      <c r="AD4" s="246"/>
+      <c r="AE4" s="221" t="s">
         <v>149</v>
       </c>
-      <c r="AF4" s="220"/>
+      <c r="AF4" s="221"/>
     </row>
     <row r="5" spans="1:32" s="30" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="29"/>
@@ -10945,38 +10949,38 @@
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="232"/>
-      <c r="J5" s="233"/>
-      <c r="K5" s="233"/>
-      <c r="L5" s="233"/>
-      <c r="M5" s="234"/>
-      <c r="N5" s="214"/>
-      <c r="O5" s="215"/>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="215"/>
-      <c r="R5" s="215"/>
-      <c r="S5" s="215"/>
-      <c r="T5" s="215"/>
-      <c r="U5" s="215"/>
-      <c r="V5" s="215"/>
-      <c r="W5" s="215"/>
-      <c r="X5" s="216"/>
-      <c r="Y5" s="245" t="str">
+      <c r="F5" s="250"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="233"/>
+      <c r="J5" s="234"/>
+      <c r="K5" s="234"/>
+      <c r="L5" s="234"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="215"/>
+      <c r="O5" s="216"/>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="216"/>
+      <c r="S5" s="216"/>
+      <c r="T5" s="216"/>
+      <c r="U5" s="216"/>
+      <c r="V5" s="216"/>
+      <c r="W5" s="216"/>
+      <c r="X5" s="217"/>
+      <c r="Y5" s="246" t="str">
         <f>Graduation!K9</f>
         <v>د بیولوژي څانګه</v>
       </c>
-      <c r="Z5" s="245"/>
-      <c r="AA5" s="245"/>
-      <c r="AB5" s="245"/>
-      <c r="AC5" s="245"/>
-      <c r="AD5" s="245"/>
-      <c r="AE5" s="220" t="s">
+      <c r="Z5" s="246"/>
+      <c r="AA5" s="246"/>
+      <c r="AB5" s="246"/>
+      <c r="AC5" s="246"/>
+      <c r="AD5" s="246"/>
+      <c r="AE5" s="221" t="s">
         <v>147</v>
       </c>
-      <c r="AF5" s="220"/>
+      <c r="AF5" s="221"/>
     </row>
     <row r="6" spans="1:32" s="30" customFormat="1" ht="26.25" customHeight="1">
       <c r="A6" s="29"/>
@@ -10984,45 +10988,45 @@
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
-      <c r="F6" s="235">
+      <c r="F6" s="236">
         <f>Graduation!A8</f>
         <v>0</v>
       </c>
-      <c r="G6" s="236"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="229" t="s">
+      <c r="G6" s="237"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="230" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="230"/>
-      <c r="K6" s="230"/>
-      <c r="L6" s="230"/>
-      <c r="M6" s="231"/>
-      <c r="N6" s="214" t="s">
+      <c r="J6" s="231"/>
+      <c r="K6" s="231"/>
+      <c r="L6" s="231"/>
+      <c r="M6" s="232"/>
+      <c r="N6" s="215" t="s">
         <v>100</v>
       </c>
-      <c r="O6" s="215"/>
-      <c r="P6" s="215"/>
-      <c r="Q6" s="215"/>
-      <c r="R6" s="215"/>
-      <c r="S6" s="215"/>
-      <c r="T6" s="215"/>
-      <c r="U6" s="215"/>
-      <c r="V6" s="215"/>
-      <c r="W6" s="215"/>
-      <c r="X6" s="216"/>
-      <c r="Y6" s="217">
+      <c r="O6" s="216"/>
+      <c r="P6" s="216"/>
+      <c r="Q6" s="216"/>
+      <c r="R6" s="216"/>
+      <c r="S6" s="216"/>
+      <c r="T6" s="216"/>
+      <c r="U6" s="216"/>
+      <c r="V6" s="216"/>
+      <c r="W6" s="216"/>
+      <c r="X6" s="217"/>
+      <c r="Y6" s="218">
         <f>Graduation!V4</f>
         <v>1398</v>
       </c>
-      <c r="Z6" s="218"/>
-      <c r="AA6" s="218"/>
-      <c r="AB6" s="218"/>
-      <c r="AC6" s="218"/>
-      <c r="AD6" s="219"/>
-      <c r="AE6" s="220" t="s">
+      <c r="Z6" s="219"/>
+      <c r="AA6" s="219"/>
+      <c r="AB6" s="219"/>
+      <c r="AC6" s="219"/>
+      <c r="AD6" s="220"/>
+      <c r="AE6" s="221" t="s">
         <v>98</v>
       </c>
-      <c r="AF6" s="220"/>
+      <c r="AF6" s="221"/>
     </row>
     <row r="7" spans="1:32" s="30" customFormat="1" ht="26.25" customHeight="1">
       <c r="A7" s="29"/>
@@ -11030,40 +11034,40 @@
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="238"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="232"/>
-      <c r="J7" s="233"/>
-      <c r="K7" s="233"/>
-      <c r="L7" s="233"/>
-      <c r="M7" s="234"/>
-      <c r="N7" s="214" t="s">
+      <c r="F7" s="239"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="233"/>
+      <c r="J7" s="234"/>
+      <c r="K7" s="234"/>
+      <c r="L7" s="234"/>
+      <c r="M7" s="235"/>
+      <c r="N7" s="215" t="s">
         <v>148</v>
       </c>
-      <c r="O7" s="215"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="215"/>
-      <c r="S7" s="215"/>
-      <c r="T7" s="215"/>
-      <c r="U7" s="215"/>
-      <c r="V7" s="215"/>
-      <c r="W7" s="215"/>
-      <c r="X7" s="216"/>
-      <c r="Y7" s="217">
+      <c r="O7" s="216"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="216"/>
+      <c r="R7" s="216"/>
+      <c r="S7" s="216"/>
+      <c r="T7" s="216"/>
+      <c r="U7" s="216"/>
+      <c r="V7" s="216"/>
+      <c r="W7" s="216"/>
+      <c r="X7" s="217"/>
+      <c r="Y7" s="218">
         <f>Graduation!V8</f>
         <v>1402</v>
       </c>
-      <c r="Z7" s="218"/>
-      <c r="AA7" s="218"/>
-      <c r="AB7" s="218"/>
-      <c r="AC7" s="218"/>
-      <c r="AD7" s="219"/>
-      <c r="AE7" s="220" t="s">
+      <c r="Z7" s="219"/>
+      <c r="AA7" s="219"/>
+      <c r="AB7" s="219"/>
+      <c r="AC7" s="219"/>
+      <c r="AD7" s="220"/>
+      <c r="AE7" s="221" t="s">
         <v>99</v>
       </c>
-      <c r="AF7" s="220"/>
+      <c r="AF7" s="221"/>
     </row>
     <row r="8" spans="1:32" s="30" customFormat="1" ht="26.25" customHeight="1">
       <c r="A8" s="29"/>
@@ -11071,117 +11075,117 @@
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
-      <c r="F8" s="221">
+      <c r="F8" s="222">
         <f>Graduation!A10</f>
         <v>0</v>
       </c>
-      <c r="G8" s="221"/>
-      <c r="H8" s="221"/>
-      <c r="I8" s="222" t="s">
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="223" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="223"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="224"/>
-      <c r="N8" s="214" t="s">
+      <c r="J8" s="224"/>
+      <c r="K8" s="224"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="225"/>
+      <c r="N8" s="215" t="s">
         <v>150</v>
       </c>
-      <c r="O8" s="215"/>
-      <c r="P8" s="215"/>
-      <c r="Q8" s="215"/>
-      <c r="R8" s="215"/>
-      <c r="S8" s="215"/>
-      <c r="T8" s="215"/>
-      <c r="U8" s="215"/>
-      <c r="V8" s="215"/>
-      <c r="W8" s="215"/>
-      <c r="X8" s="216"/>
-      <c r="Y8" s="225" t="str">
+      <c r="O8" s="216"/>
+      <c r="P8" s="216"/>
+      <c r="Q8" s="216"/>
+      <c r="R8" s="216"/>
+      <c r="S8" s="216"/>
+      <c r="T8" s="216"/>
+      <c r="U8" s="216"/>
+      <c r="V8" s="216"/>
+      <c r="W8" s="216"/>
+      <c r="X8" s="217"/>
+      <c r="Y8" s="226" t="str">
         <f>Graduation!V9</f>
         <v>ليسانس</v>
       </c>
-      <c r="Z8" s="226"/>
-      <c r="AA8" s="226"/>
-      <c r="AB8" s="226"/>
-      <c r="AC8" s="226"/>
-      <c r="AD8" s="226"/>
-      <c r="AE8" s="220" t="s">
+      <c r="Z8" s="227"/>
+      <c r="AA8" s="227"/>
+      <c r="AB8" s="227"/>
+      <c r="AC8" s="227"/>
+      <c r="AD8" s="227"/>
+      <c r="AE8" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="AF8" s="220"/>
+      <c r="AF8" s="221"/>
     </row>
     <row r="9" spans="1:32" s="30" customFormat="1" ht="16.5" customHeight="1">
-      <c r="F9" s="227" t="s">
+      <c r="F9" s="228" t="s">
         <v>204</v>
       </c>
-      <c r="G9" s="227"/>
-      <c r="H9" s="227"/>
-      <c r="I9" s="228" t="s">
+      <c r="G9" s="228"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="229" t="s">
         <v>205</v>
       </c>
-      <c r="J9" s="228"/>
-      <c r="K9" s="228"/>
-      <c r="L9" s="228"/>
-      <c r="M9" s="228"/>
-      <c r="N9" s="228"/>
-      <c r="O9" s="228"/>
+      <c r="J9" s="229"/>
+      <c r="K9" s="229"/>
+      <c r="L9" s="229"/>
+      <c r="M9" s="229"/>
+      <c r="N9" s="229"/>
+      <c r="O9" s="229"/>
       <c r="P9" s="31"/>
       <c r="X9" s="31"/>
-      <c r="Y9" s="227" t="s">
+      <c r="Y9" s="228" t="s">
         <v>206</v>
       </c>
-      <c r="Z9" s="227"/>
-      <c r="AA9" s="227"/>
-      <c r="AB9" s="227"/>
-      <c r="AC9" s="227"/>
-      <c r="AD9" s="227"/>
-      <c r="AE9" s="227"/>
+      <c r="Z9" s="228"/>
+      <c r="AA9" s="228"/>
+      <c r="AB9" s="228"/>
+      <c r="AC9" s="228"/>
+      <c r="AD9" s="228"/>
+      <c r="AE9" s="228"/>
       <c r="AF9" s="60" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:32" s="30" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="203" t="s">
+      <c r="A10" s="204" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="203"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203" t="s">
+      <c r="B10" s="204"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204" t="s">
         <v>173</v>
       </c>
-      <c r="J10" s="203"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="203"/>
-      <c r="O10" s="203"/>
-      <c r="P10" s="203"/>
-      <c r="Q10" s="203" t="s">
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="204" t="s">
         <v>172</v>
       </c>
-      <c r="R10" s="203"/>
-      <c r="S10" s="203"/>
-      <c r="T10" s="203"/>
-      <c r="U10" s="203"/>
-      <c r="V10" s="203"/>
-      <c r="W10" s="203"/>
-      <c r="X10" s="203"/>
-      <c r="Y10" s="203" t="s">
+      <c r="R10" s="204"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="204"/>
+      <c r="U10" s="204"/>
+      <c r="V10" s="204"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="204" t="s">
         <v>171</v>
       </c>
-      <c r="Z10" s="203"/>
-      <c r="AA10" s="203"/>
-      <c r="AB10" s="203"/>
-      <c r="AC10" s="203"/>
-      <c r="AD10" s="203"/>
-      <c r="AE10" s="203"/>
-      <c r="AF10" s="203"/>
+      <c r="Z10" s="204"/>
+      <c r="AA10" s="204"/>
+      <c r="AB10" s="204"/>
+      <c r="AC10" s="204"/>
+      <c r="AD10" s="204"/>
+      <c r="AE10" s="204"/>
+      <c r="AF10" s="204"/>
     </row>
     <row r="11" spans="1:32" s="30" customFormat="1" ht="43.5" customHeight="1">
       <c r="A11" s="37" t="s">
@@ -11304,11 +11308,11 @@
       </c>
       <c r="F12" s="41">
         <f>G12*16</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G12" s="41">
         <f>Graduation!G15</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" s="32">
         <f>Graduation!H15</f>
@@ -11336,11 +11340,11 @@
       </c>
       <c r="N12" s="41">
         <f t="shared" ref="N12:N18" si="0">O12*16</f>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O12" s="41">
         <f>Graduation!Q15</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P12" s="32">
         <f>Graduation!R15</f>
@@ -11368,11 +11372,11 @@
       </c>
       <c r="V12" s="41">
         <f t="shared" ref="V12:V18" si="1">W12*16</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W12" s="41">
         <f>Graduation!Y15</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X12" s="32">
         <f>Graduation!Z15</f>
@@ -11400,11 +11404,11 @@
       </c>
       <c r="AD12" s="41">
         <f t="shared" ref="AD12:AD18" si="2">AE12*16</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="41">
         <f>Graduation!AG15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="32">
         <f>Graduation!AH15</f>
@@ -11434,11 +11438,11 @@
       </c>
       <c r="F13" s="41">
         <f t="shared" ref="F13:F19" si="4">G13*16</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G13" s="41">
         <f>Graduation!G16</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13" s="32">
         <f>Graduation!H16</f>
@@ -11466,11 +11470,11 @@
       </c>
       <c r="N13" s="41">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O13" s="41">
         <f>Graduation!Q16</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13" s="32">
         <f>Graduation!R16</f>
@@ -11498,11 +11502,11 @@
       </c>
       <c r="V13" s="41">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W13" s="41">
         <f>Graduation!Y16</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X13" s="32">
         <f>Graduation!Z16</f>
@@ -11530,11 +11534,11 @@
       </c>
       <c r="AD13" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="41">
         <f>Graduation!AG16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="32">
         <f>Graduation!AH16</f>
@@ -11564,11 +11568,11 @@
       </c>
       <c r="F14" s="41">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G14" s="41">
         <f>Graduation!G17</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="32">
         <f>Graduation!H17</f>
@@ -11596,11 +11600,11 @@
       </c>
       <c r="N14" s="41">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O14" s="41">
         <f>Graduation!Q17</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P14" s="32">
         <f>Graduation!R17</f>
@@ -11628,11 +11632,11 @@
       </c>
       <c r="V14" s="41">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W14" s="41">
         <f>Graduation!Y17</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X14" s="32">
         <f>Graduation!Z17</f>
@@ -11660,11 +11664,11 @@
       </c>
       <c r="AD14" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="41">
         <f>Graduation!AG17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="32">
         <f>Graduation!AH17</f>
@@ -11694,11 +11698,11 @@
       </c>
       <c r="F15" s="41">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G15" s="41">
         <f>Graduation!G18</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15" s="32">
         <f>Graduation!H18</f>
@@ -11726,11 +11730,11 @@
       </c>
       <c r="N15" s="41">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O15" s="41">
         <f>Graduation!Q18</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P15" s="32">
         <f>Graduation!R18</f>
@@ -11758,11 +11762,11 @@
       </c>
       <c r="V15" s="41">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W15" s="41">
         <f>Graduation!Y18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X15" s="32">
         <f>Graduation!Z18</f>
@@ -11790,11 +11794,11 @@
       </c>
       <c r="AD15" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="41">
         <f>Graduation!AG18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="32">
         <f>Graduation!AH18</f>
@@ -11824,11 +11828,11 @@
       </c>
       <c r="F16" s="41">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G16" s="41">
         <f>Graduation!G19</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16" s="32">
         <f>Graduation!H19</f>
@@ -11856,11 +11860,11 @@
       </c>
       <c r="N16" s="41">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O16" s="41">
         <f>Graduation!Q19</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P16" s="32">
         <f>Graduation!R19</f>
@@ -11888,11 +11892,11 @@
       </c>
       <c r="V16" s="41">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W16" s="41">
         <f>Graduation!Y19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X16" s="32">
         <f>Graduation!Z19</f>
@@ -11920,11 +11924,11 @@
       </c>
       <c r="AD16" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="41">
         <f>Graduation!AG19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="32">
         <f>Graduation!AH19</f>
@@ -11954,11 +11958,11 @@
       </c>
       <c r="F17" s="41">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G17" s="41">
         <f>Graduation!G20</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" s="32">
         <f>Graduation!H20</f>
@@ -11986,11 +11990,11 @@
       </c>
       <c r="N17" s="41">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O17" s="41">
         <f>Graduation!Q20</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P17" s="32">
         <f>Graduation!R20</f>
@@ -12018,11 +12022,11 @@
       </c>
       <c r="V17" s="41">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W17" s="41">
         <f>Graduation!Y20</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X17" s="32">
         <f>Graduation!Z20</f>
@@ -12050,11 +12054,11 @@
       </c>
       <c r="AD17" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="41">
         <f>Graduation!AG20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="32">
         <f>Graduation!AH20</f>
@@ -12084,11 +12088,11 @@
       </c>
       <c r="F18" s="41">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G18" s="41">
         <f>Graduation!G21</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18" s="32">
         <f>Graduation!H21</f>
@@ -12116,11 +12120,11 @@
       </c>
       <c r="N18" s="41">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O18" s="41">
         <f>Graduation!Q21</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P18" s="32">
         <f>Graduation!R21</f>
@@ -12148,11 +12152,11 @@
       </c>
       <c r="V18" s="41">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W18" s="41">
         <f>Graduation!Y21</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X18" s="32">
         <f>Graduation!Z21</f>
@@ -12180,11 +12184,11 @@
       </c>
       <c r="AD18" s="41">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="41">
         <f>Graduation!AG21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="32">
         <f>Graduation!AH21</f>
@@ -12214,11 +12218,11 @@
       </c>
       <c r="F19" s="41">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G19" s="41">
         <f>Graduation!G22</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19" s="32">
         <f>Graduation!H22</f>
@@ -12246,11 +12250,11 @@
       </c>
       <c r="N19" s="41">
         <f t="shared" ref="N19" si="9">O19*16</f>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O19" s="41">
         <f>Graduation!Q22</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P19" s="32">
         <f>Graduation!R22</f>
@@ -12278,11 +12282,11 @@
       </c>
       <c r="V19" s="41">
         <f t="shared" ref="V19" si="11">W19*16</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W19" s="41">
         <f>Graduation!Y22</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X19" s="32">
         <f>Graduation!Z22</f>
@@ -12310,11 +12314,11 @@
       </c>
       <c r="AD19" s="41">
         <f t="shared" ref="AD19" si="13">AE19*16</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="41">
         <f>Graduation!AG22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="32">
         <f>Graduation!AH22</f>
@@ -12344,11 +12348,11 @@
       </c>
       <c r="F20" s="41">
         <f t="shared" ref="F20" si="15">G20*16</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G20" s="41">
         <f>Graduation!G23</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20" s="32">
         <f>Graduation!H23</f>
@@ -12376,11 +12380,11 @@
       </c>
       <c r="N20" s="41">
         <f t="shared" ref="N20" si="17">O20*16</f>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O20" s="41">
         <f>Graduation!Q23</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P20" s="32">
         <f>Graduation!R23</f>
@@ -12408,11 +12412,11 @@
       </c>
       <c r="V20" s="41">
         <f t="shared" ref="V20" si="19">W20*16</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W20" s="41">
         <f>Graduation!Y23</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X20" s="32">
         <f>Graduation!Z23</f>
@@ -12440,11 +12444,11 @@
       </c>
       <c r="AD20" s="41">
         <f t="shared" ref="AD20" si="21">AE20*16</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="41">
         <f>Graduation!AG23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="32">
         <f>Graduation!AH23</f>
@@ -12474,11 +12478,11 @@
       </c>
       <c r="F21" s="41">
         <f t="shared" ref="F21" si="23">G21*16</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G21" s="41">
         <f>Graduation!G24</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H21" s="32">
         <f>Graduation!H24</f>
@@ -12506,11 +12510,11 @@
       </c>
       <c r="N21" s="41">
         <f t="shared" ref="N21" si="25">O21*16</f>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O21" s="41">
         <f>Graduation!Q24</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P21" s="32">
         <f>Graduation!R24</f>
@@ -12538,11 +12542,11 @@
       </c>
       <c r="V21" s="41">
         <f t="shared" ref="V21" si="27">W21*16</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W21" s="41">
         <f>Graduation!Y24</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X21" s="32">
         <f>Graduation!Z24</f>
@@ -12570,11 +12574,11 @@
       </c>
       <c r="AD21" s="41">
         <f t="shared" ref="AD21" si="29">AE21*16</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="41">
         <f>Graduation!AG24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="32">
         <f>Graduation!AH24</f>
@@ -12582,262 +12586,262 @@
       </c>
     </row>
     <row r="22" spans="1:32" s="30" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A22" s="186">
+      <c r="A22" s="187">
         <f>SUM(G12:G21)</f>
-        <v>40</v>
-      </c>
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="188"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="183" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="183"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="186">
+      <c r="G22" s="184"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="187">
         <f>SUM(O12:O21)</f>
-        <v>30</v>
-      </c>
-      <c r="J22" s="187"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="187"/>
-      <c r="M22" s="188"/>
-      <c r="N22" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="188"/>
+      <c r="K22" s="188"/>
+      <c r="L22" s="188"/>
+      <c r="M22" s="189"/>
+      <c r="N22" s="183" t="s">
         <v>162</v>
       </c>
-      <c r="O22" s="183"/>
-      <c r="P22" s="184"/>
-      <c r="Q22" s="186">
+      <c r="O22" s="184"/>
+      <c r="P22" s="185"/>
+      <c r="Q22" s="187">
         <f>SUM(W12:W21)</f>
-        <v>20</v>
-      </c>
-      <c r="R22" s="187"/>
-      <c r="S22" s="187"/>
-      <c r="T22" s="187"/>
-      <c r="U22" s="188"/>
-      <c r="V22" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="188"/>
+      <c r="S22" s="188"/>
+      <c r="T22" s="188"/>
+      <c r="U22" s="189"/>
+      <c r="V22" s="183" t="s">
         <v>162</v>
       </c>
-      <c r="W22" s="183"/>
-      <c r="X22" s="184"/>
-      <c r="Y22" s="186">
+      <c r="W22" s="184"/>
+      <c r="X22" s="185"/>
+      <c r="Y22" s="187">
         <f>SUM(AE12:AE21)</f>
-        <v>10</v>
-      </c>
-      <c r="Z22" s="187"/>
-      <c r="AA22" s="187"/>
-      <c r="AB22" s="187"/>
-      <c r="AC22" s="188"/>
-      <c r="AD22" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="188"/>
+      <c r="AA22" s="188"/>
+      <c r="AB22" s="188"/>
+      <c r="AC22" s="189"/>
+      <c r="AD22" s="183" t="s">
         <v>162</v>
       </c>
-      <c r="AE22" s="183"/>
-      <c r="AF22" s="184"/>
+      <c r="AE22" s="184"/>
+      <c r="AF22" s="185"/>
     </row>
     <row r="23" spans="1:32" s="30" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="189">
+      <c r="A23" s="190">
         <f>SUM(G12*MAX(B12:E12)+G13*MAX(B13:E13)+G14*MAX(B14:E14)+G15*MAX(B15:E15)+G16*MAX(B16:E16)+G17*MAX(B17:E17)+G18*MAX(B18:E18)+G19*MAX(B19:E19)+G20*MAX(B20:E20)+G21*MAX(B21:E21))</f>
         <v>0</v>
       </c>
-      <c r="B23" s="189"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="182" t="s">
+      <c r="B23" s="190"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="183"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="189">
+      <c r="G23" s="184"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="190">
         <f>SUM(O12*MAX(J12:M12)+O13*MAX(J13:M13)+O14*MAX(J14:M14)+O15*MAX(J15:M15)+O16*MAX(J16:M16)+O17*MAX(J17:M17)+O18*MAX(J18:M18)+O19*MAX(J19:M19)+O20*MAX(J20:M20)+O21*MAX(J21:M21))</f>
         <v>0</v>
       </c>
-      <c r="J23" s="189"/>
-      <c r="K23" s="189"/>
-      <c r="L23" s="189"/>
-      <c r="M23" s="189"/>
-      <c r="N23" s="182" t="s">
+      <c r="J23" s="190"/>
+      <c r="K23" s="190"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="O23" s="183"/>
-      <c r="P23" s="184"/>
-      <c r="Q23" s="189">
+      <c r="O23" s="184"/>
+      <c r="P23" s="185"/>
+      <c r="Q23" s="190">
         <f>SUM(W12*MAX(R12:U12)+W13*MAX(R13:U13)+W14*MAX(R14:U14)+W15*MAX(R15:U15)+W16*MAX(R16:U16)+W17*MAX(R17:U17)+W18*MAX(R18:U18)+W19*MAX(R19:U19)+W20*MAX(R20:U20)+W21*MAX(R21:U21))</f>
         <v>0</v>
       </c>
-      <c r="R23" s="189"/>
-      <c r="S23" s="189"/>
-      <c r="T23" s="189"/>
-      <c r="U23" s="189"/>
-      <c r="V23" s="182" t="s">
+      <c r="R23" s="190"/>
+      <c r="S23" s="190"/>
+      <c r="T23" s="190"/>
+      <c r="U23" s="190"/>
+      <c r="V23" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="W23" s="183"/>
-      <c r="X23" s="184"/>
-      <c r="Y23" s="189">
+      <c r="W23" s="184"/>
+      <c r="X23" s="185"/>
+      <c r="Y23" s="190">
         <f>SUM(AE12*MAX(Z12:AC12)+AE13*MAX(Z13:AC13)+AE14*MAX(Z14:AC14)+AE15*MAX(Z15:AC15)+AE16*MAX(Z16:AC16)+AE17*MAX(Z17:AC17)+AE18*MAX(Z18:AC18)+AE19*MAX(Z19:AC19)+AE20*MAX(Z20:AC20)+AE21*MAX(Z21:AC21))</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="189"/>
-      <c r="AA23" s="189"/>
-      <c r="AB23" s="189"/>
-      <c r="AC23" s="189"/>
-      <c r="AD23" s="182" t="s">
+      <c r="Z23" s="190"/>
+      <c r="AA23" s="190"/>
+      <c r="AB23" s="190"/>
+      <c r="AC23" s="190"/>
+      <c r="AD23" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="AE23" s="183"/>
-      <c r="AF23" s="184"/>
+      <c r="AE23" s="184"/>
+      <c r="AF23" s="185"/>
     </row>
     <row r="24" spans="1:32" s="30" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A24" s="185">
+      <c r="A24" s="186" t="e">
         <f>A23/A22</f>
-        <v>0</v>
-      </c>
-      <c r="B24" s="185"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="182" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="183"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="185">
+      <c r="G24" s="184"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="186" t="e">
         <f>I23/I22</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="185"/>
-      <c r="K24" s="185"/>
-      <c r="L24" s="185"/>
-      <c r="M24" s="185"/>
-      <c r="N24" s="182" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="186"/>
+      <c r="K24" s="186"/>
+      <c r="L24" s="186"/>
+      <c r="M24" s="186"/>
+      <c r="N24" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="O24" s="183"/>
-      <c r="P24" s="184"/>
-      <c r="Q24" s="185">
+      <c r="O24" s="184"/>
+      <c r="P24" s="185"/>
+      <c r="Q24" s="186" t="e">
         <f>Q23/Q22</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="185"/>
-      <c r="S24" s="185"/>
-      <c r="T24" s="185"/>
-      <c r="U24" s="185"/>
-      <c r="V24" s="182" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" s="186"/>
+      <c r="S24" s="186"/>
+      <c r="T24" s="186"/>
+      <c r="U24" s="186"/>
+      <c r="V24" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="W24" s="183"/>
-      <c r="X24" s="184"/>
-      <c r="Y24" s="185">
+      <c r="W24" s="184"/>
+      <c r="X24" s="185"/>
+      <c r="Y24" s="186" t="e">
         <f>Y23/Y22</f>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="185"/>
-      <c r="AA24" s="185"/>
-      <c r="AB24" s="185"/>
-      <c r="AC24" s="185"/>
-      <c r="AD24" s="182" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z24" s="186"/>
+      <c r="AA24" s="186"/>
+      <c r="AB24" s="186"/>
+      <c r="AC24" s="186"/>
+      <c r="AD24" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="AE24" s="183"/>
-      <c r="AF24" s="184"/>
+      <c r="AE24" s="184"/>
+      <c r="AF24" s="185"/>
     </row>
     <row r="25" spans="1:32" s="30" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A25" s="190" t="b">
+      <c r="A25" s="191" t="e">
         <f>IF(A24&gt;89,"بريالی",IF(A24&gt;79,"بريالی",IF(A24&gt;69,"بريالی",IF(A24&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
-      </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="191"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="182" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B25" s="192"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="183" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="183"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="190" t="b">
+      <c r="G25" s="184"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="191" t="e">
         <f>IF(I24&gt;89,"بريالی",IF(I24&gt;79,"بريالی",IF(I24&gt;69,"بريالی",IF(I24&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="191"/>
-      <c r="K25" s="191"/>
-      <c r="L25" s="191"/>
-      <c r="M25" s="192"/>
-      <c r="N25" s="182" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="192"/>
+      <c r="K25" s="192"/>
+      <c r="L25" s="192"/>
+      <c r="M25" s="193"/>
+      <c r="N25" s="183" t="s">
         <v>132</v>
       </c>
-      <c r="O25" s="183"/>
-      <c r="P25" s="184"/>
-      <c r="Q25" s="190" t="b">
+      <c r="O25" s="184"/>
+      <c r="P25" s="185"/>
+      <c r="Q25" s="191" t="e">
         <f>IF(Q24&gt;89,"بريالی",IF(Q24&gt;79,"بريالی",IF(Q24&gt;69,"بريالی",IF(Q24&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="191"/>
-      <c r="S25" s="191"/>
-      <c r="T25" s="191"/>
-      <c r="U25" s="192"/>
-      <c r="V25" s="182" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="192"/>
+      <c r="S25" s="192"/>
+      <c r="T25" s="192"/>
+      <c r="U25" s="193"/>
+      <c r="V25" s="183" t="s">
         <v>132</v>
       </c>
-      <c r="W25" s="183"/>
-      <c r="X25" s="184"/>
-      <c r="Y25" s="190" t="b">
+      <c r="W25" s="184"/>
+      <c r="X25" s="185"/>
+      <c r="Y25" s="191" t="e">
         <f>IF(Y24&gt;89,"بريالی",IF(Y24&gt;79,"بريالی",IF(Y24&gt;69,"بريالی",IF(Y24&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="191"/>
-      <c r="AA25" s="191"/>
-      <c r="AB25" s="191"/>
-      <c r="AC25" s="192"/>
-      <c r="AD25" s="182" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" s="192"/>
+      <c r="AA25" s="192"/>
+      <c r="AB25" s="192"/>
+      <c r="AC25" s="193"/>
+      <c r="AD25" s="183" t="s">
         <v>132</v>
       </c>
-      <c r="AE25" s="183"/>
-      <c r="AF25" s="184"/>
+      <c r="AE25" s="184"/>
+      <c r="AF25" s="185"/>
     </row>
     <row r="26" spans="1:32" s="30" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A26" s="203" t="s">
+      <c r="A26" s="204" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="203"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="203" t="s">
+      <c r="B26" s="204"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="204" t="s">
         <v>177</v>
       </c>
-      <c r="J26" s="203"/>
-      <c r="K26" s="203"/>
-      <c r="L26" s="203"/>
-      <c r="M26" s="203"/>
-      <c r="N26" s="203"/>
-      <c r="O26" s="203"/>
-      <c r="P26" s="203"/>
-      <c r="Q26" s="203" t="s">
+      <c r="J26" s="204"/>
+      <c r="K26" s="204"/>
+      <c r="L26" s="204"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="204"/>
+      <c r="O26" s="204"/>
+      <c r="P26" s="204"/>
+      <c r="Q26" s="204" t="s">
         <v>176</v>
       </c>
-      <c r="R26" s="203"/>
-      <c r="S26" s="203"/>
-      <c r="T26" s="203"/>
-      <c r="U26" s="203"/>
-      <c r="V26" s="203"/>
-      <c r="W26" s="203"/>
-      <c r="X26" s="203"/>
-      <c r="Y26" s="203" t="s">
+      <c r="R26" s="204"/>
+      <c r="S26" s="204"/>
+      <c r="T26" s="204"/>
+      <c r="U26" s="204"/>
+      <c r="V26" s="204"/>
+      <c r="W26" s="204"/>
+      <c r="X26" s="204"/>
+      <c r="Y26" s="204" t="s">
         <v>175</v>
       </c>
-      <c r="Z26" s="203"/>
-      <c r="AA26" s="203"/>
-      <c r="AB26" s="203"/>
-      <c r="AC26" s="203"/>
-      <c r="AD26" s="203"/>
-      <c r="AE26" s="203"/>
-      <c r="AF26" s="203"/>
+      <c r="Z26" s="204"/>
+      <c r="AA26" s="204"/>
+      <c r="AB26" s="204"/>
+      <c r="AC26" s="204"/>
+      <c r="AD26" s="204"/>
+      <c r="AE26" s="204"/>
+      <c r="AF26" s="204"/>
     </row>
     <row r="27" spans="1:32" s="30" customFormat="1" ht="43.5" customHeight="1">
       <c r="A27" s="37" t="s">
@@ -12960,11 +12964,11 @@
       </c>
       <c r="F28" s="41">
         <f>G28*16</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G28" s="41">
         <f>Graduation!G31</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H28" s="32">
         <f>Graduation!H31</f>
@@ -12992,11 +12996,11 @@
       </c>
       <c r="N28" s="41">
         <f>O28*16</f>
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="O28" s="41">
         <f>Graduation!Q31</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P28" s="32">
         <f>Graduation!R31</f>
@@ -13024,11 +13028,11 @@
       </c>
       <c r="V28" s="41">
         <f>W28*16</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="W28" s="41">
         <f>Graduation!Y31</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X28" s="32">
         <f>Graduation!Z31</f>
@@ -13056,11 +13060,11 @@
       </c>
       <c r="AD28" s="41">
         <f>AE28*16</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="41">
         <f>Graduation!AG31</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="32">
         <f>Graduation!AH31</f>
@@ -13090,11 +13094,11 @@
       </c>
       <c r="F29" s="41">
         <f t="shared" ref="F29:F34" si="31">G29*16</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G29" s="41">
         <f>Graduation!G32</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H29" s="32">
         <f>Graduation!H32</f>
@@ -13122,11 +13126,11 @@
       </c>
       <c r="N29" s="41">
         <f t="shared" ref="N29:N34" si="33">O29*16</f>
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="O29" s="41">
         <f>Graduation!Q32</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P29" s="32">
         <f>Graduation!R32</f>
@@ -13154,11 +13158,11 @@
       </c>
       <c r="V29" s="41">
         <f t="shared" ref="V29:V35" si="35">W29*16</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="W29" s="41">
         <f>Graduation!Y32</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X29" s="32">
         <f>Graduation!Z32</f>
@@ -13186,11 +13190,11 @@
       </c>
       <c r="AD29" s="41">
         <f t="shared" ref="AD29:AD35" si="37">AE29*16</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="41">
         <f>Graduation!AG32</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="32">
         <f>Graduation!AH32</f>
@@ -13220,11 +13224,11 @@
       </c>
       <c r="F30" s="41">
         <f t="shared" si="31"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G30" s="41">
         <f>Graduation!G33</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H30" s="32">
         <f>Graduation!H33</f>
@@ -13252,11 +13256,11 @@
       </c>
       <c r="N30" s="41">
         <f t="shared" si="33"/>
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="O30" s="41">
         <f>Graduation!Q33</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P30" s="32">
         <f>Graduation!R33</f>
@@ -13284,11 +13288,11 @@
       </c>
       <c r="V30" s="41">
         <f t="shared" si="35"/>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="W30" s="41">
         <f>Graduation!Y33</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X30" s="32">
         <f>Graduation!Z33</f>
@@ -13316,11 +13320,11 @@
       </c>
       <c r="AD30" s="41">
         <f t="shared" si="37"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="41">
         <f>Graduation!AG33</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="32">
         <f>Graduation!AH33</f>
@@ -13350,11 +13354,11 @@
       </c>
       <c r="F31" s="41">
         <f t="shared" si="31"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G31" s="41">
         <f>Graduation!G34</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H31" s="32">
         <f>Graduation!H34</f>
@@ -13382,11 +13386,11 @@
       </c>
       <c r="N31" s="41">
         <f t="shared" si="33"/>
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="O31" s="41">
         <f>Graduation!Q34</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P31" s="32">
         <f>Graduation!R34</f>
@@ -13414,11 +13418,11 @@
       </c>
       <c r="V31" s="41">
         <f t="shared" si="35"/>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="W31" s="41">
         <f>Graduation!Y34</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X31" s="32">
         <f>Graduation!Z34</f>
@@ -13446,11 +13450,11 @@
       </c>
       <c r="AD31" s="41">
         <f t="shared" si="37"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="41">
         <f>Graduation!AG34</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="32">
         <f>Graduation!AH34</f>
@@ -13480,11 +13484,11 @@
       </c>
       <c r="F32" s="41">
         <f t="shared" si="31"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G32" s="41">
         <f>Graduation!G35</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H32" s="32">
         <f>Graduation!H35</f>
@@ -13512,11 +13516,11 @@
       </c>
       <c r="N32" s="41">
         <f t="shared" si="33"/>
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="O32" s="41">
         <f>Graduation!Q35</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P32" s="32">
         <f>Graduation!R35</f>
@@ -13544,11 +13548,11 @@
       </c>
       <c r="V32" s="41">
         <f t="shared" si="35"/>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="W32" s="41">
         <f>Graduation!Y35</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X32" s="32">
         <f>Graduation!Z35</f>
@@ -13576,11 +13580,11 @@
       </c>
       <c r="AD32" s="41">
         <f t="shared" si="37"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="41">
         <f>Graduation!AG35</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="32">
         <f>Graduation!AH35</f>
@@ -13610,11 +13614,11 @@
       </c>
       <c r="F33" s="41">
         <f t="shared" si="31"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G33" s="41">
         <f>Graduation!G36</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H33" s="32">
         <f>Graduation!H36</f>
@@ -13642,11 +13646,11 @@
       </c>
       <c r="N33" s="41">
         <f t="shared" si="33"/>
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="O33" s="41">
         <f>Graduation!Q36</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P33" s="32">
         <f>Graduation!R36</f>
@@ -13674,11 +13678,11 @@
       </c>
       <c r="V33" s="41">
         <f t="shared" si="35"/>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="W33" s="41">
         <f>Graduation!Y36</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X33" s="32">
         <f>Graduation!Z36</f>
@@ -13706,11 +13710,11 @@
       </c>
       <c r="AD33" s="41">
         <f t="shared" si="37"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="41">
         <f>Graduation!AG36</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="32">
         <f>Graduation!AH36</f>
@@ -13740,11 +13744,11 @@
       </c>
       <c r="F34" s="41">
         <f t="shared" si="31"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G34" s="41">
         <f>Graduation!G37</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H34" s="32">
         <f>Graduation!H37</f>
@@ -13772,11 +13776,11 @@
       </c>
       <c r="N34" s="41">
         <f t="shared" si="33"/>
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="O34" s="41">
         <f>Graduation!Q37</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P34" s="32">
         <f>Graduation!R37</f>
@@ -13804,11 +13808,11 @@
       </c>
       <c r="V34" s="41">
         <f t="shared" si="35"/>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="W34" s="41">
         <f>Graduation!Y37</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X34" s="32">
         <f>Graduation!Z37</f>
@@ -13836,11 +13840,11 @@
       </c>
       <c r="AD34" s="41">
         <f t="shared" si="37"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="41">
         <f>Graduation!AG37</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="32">
         <f>Graduation!AH37</f>
@@ -13870,11 +13874,11 @@
       </c>
       <c r="F35" s="41">
         <f t="shared" ref="F35" si="39">G35*16</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G35" s="41">
         <f>Graduation!G38</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H35" s="32">
         <f>Graduation!H38</f>
@@ -13902,11 +13906,11 @@
       </c>
       <c r="N35" s="41">
         <f t="shared" ref="N35" si="41">O35*16</f>
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="O35" s="41">
         <f>Graduation!Q38</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P35" s="32">
         <f>Graduation!R38</f>
@@ -13934,11 +13938,11 @@
       </c>
       <c r="V35" s="41">
         <f t="shared" si="35"/>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="W35" s="41">
         <f>Graduation!Y38</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X35" s="32">
         <f>Graduation!Z38</f>
@@ -13966,11 +13970,11 @@
       </c>
       <c r="AD35" s="41">
         <f t="shared" si="37"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="41">
         <f>Graduation!AG38</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="32">
         <f>Graduation!AH38</f>
@@ -14000,11 +14004,11 @@
       </c>
       <c r="F36" s="41">
         <f t="shared" ref="F36" si="43">G36*16</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G36" s="41">
         <f>Graduation!G39</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H36" s="32">
         <f>Graduation!H39</f>
@@ -14032,11 +14036,11 @@
       </c>
       <c r="N36" s="41">
         <f t="shared" ref="N36" si="45">O36*16</f>
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="O36" s="41">
         <f>Graduation!Q39</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P36" s="32">
         <f>Graduation!R39</f>
@@ -14064,11 +14068,11 @@
       </c>
       <c r="V36" s="41">
         <f t="shared" ref="V36" si="47">W36*16</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="W36" s="41">
         <f>Graduation!Y39</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X36" s="32">
         <f>Graduation!Z39</f>
@@ -14096,11 +14100,11 @@
       </c>
       <c r="AD36" s="41">
         <f t="shared" ref="AD36" si="49">AE36*16</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="41">
         <f>Graduation!AG39</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="32">
         <f>Graduation!AH39</f>
@@ -14130,11 +14134,11 @@
       </c>
       <c r="F37" s="41">
         <f t="shared" ref="F37" si="51">G37*16</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G37" s="41">
         <f>Graduation!G40</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H37" s="32">
         <f>Graduation!H40</f>
@@ -14162,11 +14166,11 @@
       </c>
       <c r="N37" s="41">
         <f t="shared" ref="N37" si="53">O37*16</f>
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="O37" s="41">
         <f>Graduation!Q40</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P37" s="32">
         <f>Graduation!R40</f>
@@ -14194,11 +14198,11 @@
       </c>
       <c r="V37" s="41">
         <f t="shared" ref="V37" si="55">W37*16</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="W37" s="41">
         <f>Graduation!Y40</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X37" s="32">
         <f>Graduation!Z40</f>
@@ -14226,11 +14230,11 @@
       </c>
       <c r="AD37" s="41">
         <f t="shared" ref="AD37" si="57">AE37*16</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="41">
         <f>Graduation!AG40</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="32">
         <f>Graduation!AH40</f>
@@ -14238,471 +14242,471 @@
       </c>
     </row>
     <row r="38" spans="1:32" s="30" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A38" s="186">
+      <c r="A38" s="187">
         <f>SUM(G28:G37)</f>
-        <v>80</v>
-      </c>
-      <c r="B38" s="187"/>
-      <c r="C38" s="187"/>
-      <c r="D38" s="187"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="188"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="183" t="s">
         <v>162</v>
       </c>
-      <c r="G38" s="183"/>
-      <c r="H38" s="184"/>
-      <c r="I38" s="186">
+      <c r="G38" s="184"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="187">
         <f>SUM(O28:O37)</f>
-        <v>70</v>
-      </c>
-      <c r="J38" s="187"/>
-      <c r="K38" s="187"/>
-      <c r="L38" s="187"/>
-      <c r="M38" s="188"/>
-      <c r="N38" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="188"/>
+      <c r="K38" s="188"/>
+      <c r="L38" s="188"/>
+      <c r="M38" s="189"/>
+      <c r="N38" s="183" t="s">
         <v>162</v>
       </c>
-      <c r="O38" s="183"/>
-      <c r="P38" s="184"/>
-      <c r="Q38" s="186">
+      <c r="O38" s="184"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="187">
         <f>SUM(W28:W37)</f>
-        <v>60</v>
-      </c>
-      <c r="R38" s="187"/>
-      <c r="S38" s="187"/>
-      <c r="T38" s="187"/>
-      <c r="U38" s="188"/>
-      <c r="V38" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="R38" s="188"/>
+      <c r="S38" s="188"/>
+      <c r="T38" s="188"/>
+      <c r="U38" s="189"/>
+      <c r="V38" s="183" t="s">
         <v>162</v>
       </c>
-      <c r="W38" s="183"/>
-      <c r="X38" s="184"/>
-      <c r="Y38" s="186">
+      <c r="W38" s="184"/>
+      <c r="X38" s="185"/>
+      <c r="Y38" s="187">
         <f>SUM(AE28:AE37)</f>
-        <v>50</v>
-      </c>
-      <c r="Z38" s="187"/>
-      <c r="AA38" s="187"/>
-      <c r="AB38" s="187"/>
-      <c r="AC38" s="188"/>
-      <c r="AD38" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="188"/>
+      <c r="AA38" s="188"/>
+      <c r="AB38" s="188"/>
+      <c r="AC38" s="189"/>
+      <c r="AD38" s="183" t="s">
         <v>162</v>
       </c>
-      <c r="AE38" s="183"/>
-      <c r="AF38" s="184"/>
+      <c r="AE38" s="184"/>
+      <c r="AF38" s="185"/>
     </row>
     <row r="39" spans="1:32" s="30" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="189">
+      <c r="A39" s="190">
         <f>SUM(G28*MAX(B28:E28)+G29*MAX(B29:E29)+G30*MAX(B30:E30)+G31*MAX(B31:E31)+G32*MAX(B32:E32)+G33*MAX(B33:E33)+G34*MAX(B34:E34)+G35*MAX(B35:E35)+G36*MAX(B36:E36)+G37*MAX(B37:E37))</f>
         <v>0</v>
       </c>
-      <c r="B39" s="189"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="189"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="182" t="s">
+      <c r="B39" s="190"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="G39" s="183"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="189">
+      <c r="G39" s="184"/>
+      <c r="H39" s="185"/>
+      <c r="I39" s="190">
         <f>SUM(O28*MAX(J28:M28)+O29*MAX(J29:M29)+O30*MAX(J30:M30)+O31*MAX(J31:M31)+O32*MAX(J32:M32)+O33*MAX(J33:M33)+O34*MAX(J34:M34)+O35*MAX(J35:M35)+O36*MAX(J36:M36)+O37*MAX(J37:M37))</f>
         <v>0</v>
       </c>
-      <c r="J39" s="189"/>
-      <c r="K39" s="189"/>
-      <c r="L39" s="189"/>
-      <c r="M39" s="189"/>
-      <c r="N39" s="182" t="s">
+      <c r="J39" s="190"/>
+      <c r="K39" s="190"/>
+      <c r="L39" s="190"/>
+      <c r="M39" s="190"/>
+      <c r="N39" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="O39" s="183"/>
-      <c r="P39" s="184"/>
-      <c r="Q39" s="189">
+      <c r="O39" s="184"/>
+      <c r="P39" s="185"/>
+      <c r="Q39" s="190">
         <f>SUM(W28*MAX(R28:U28)+W29*MAX(R29:U29)+W30*MAX(R30:U30)+W31*MAX(R31:U31)+W32*MAX(R32:U32)+W33*MAX(R33:U33)+W34*MAX(R34:U34)+W35*MAX(R35:U35)+W36*MAX(R36:U36)+W37*MAX(R37:U37))</f>
         <v>0</v>
       </c>
-      <c r="R39" s="189"/>
-      <c r="S39" s="189"/>
-      <c r="T39" s="189"/>
-      <c r="U39" s="189"/>
-      <c r="V39" s="182" t="s">
+      <c r="R39" s="190"/>
+      <c r="S39" s="190"/>
+      <c r="T39" s="190"/>
+      <c r="U39" s="190"/>
+      <c r="V39" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="W39" s="183"/>
-      <c r="X39" s="184"/>
-      <c r="Y39" s="189">
+      <c r="W39" s="184"/>
+      <c r="X39" s="185"/>
+      <c r="Y39" s="190">
         <f>SUM(AE28*MAX(Z28:AC28)+AE29*MAX(Z29:AC29)+AE30*MAX(Z30:AC30)+AE31*MAX(Z31:AC31)+AE32*MAX(Z32:AC32)+AE33*MAX(Z33:AC33)+AE34*MAX(Z34:AC34)+AE35*MAX(Z35:AC35)+AE36*MAX(Z36:AC36)+AE37*MAX(Z37:AC37))</f>
         <v>0</v>
       </c>
-      <c r="Z39" s="189"/>
-      <c r="AA39" s="189"/>
-      <c r="AB39" s="189"/>
-      <c r="AC39" s="189"/>
-      <c r="AD39" s="182" t="s">
+      <c r="Z39" s="190"/>
+      <c r="AA39" s="190"/>
+      <c r="AB39" s="190"/>
+      <c r="AC39" s="190"/>
+      <c r="AD39" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="AE39" s="183"/>
-      <c r="AF39" s="184"/>
+      <c r="AE39" s="184"/>
+      <c r="AF39" s="185"/>
     </row>
     <row r="40" spans="1:32" s="30" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A40" s="185">
+      <c r="A40" s="186" t="e">
         <f>A39/A38</f>
-        <v>0</v>
-      </c>
-      <c r="B40" s="185"/>
-      <c r="C40" s="185"/>
-      <c r="D40" s="185"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="182" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B40" s="186"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="G40" s="183"/>
-      <c r="H40" s="184"/>
-      <c r="I40" s="185">
+      <c r="G40" s="184"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="186" t="e">
         <f>I39/I38</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="185"/>
-      <c r="K40" s="185"/>
-      <c r="L40" s="185"/>
-      <c r="M40" s="185"/>
-      <c r="N40" s="182" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="186"/>
+      <c r="K40" s="186"/>
+      <c r="L40" s="186"/>
+      <c r="M40" s="186"/>
+      <c r="N40" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="O40" s="183"/>
-      <c r="P40" s="184"/>
-      <c r="Q40" s="185">
+      <c r="O40" s="184"/>
+      <c r="P40" s="185"/>
+      <c r="Q40" s="186" t="e">
         <f>Q39/Q38</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="185"/>
-      <c r="S40" s="185"/>
-      <c r="T40" s="185"/>
-      <c r="U40" s="185"/>
-      <c r="V40" s="182" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R40" s="186"/>
+      <c r="S40" s="186"/>
+      <c r="T40" s="186"/>
+      <c r="U40" s="186"/>
+      <c r="V40" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="W40" s="183"/>
-      <c r="X40" s="184"/>
-      <c r="Y40" s="185">
+      <c r="W40" s="184"/>
+      <c r="X40" s="185"/>
+      <c r="Y40" s="186" t="e">
         <f>Y39/Y38</f>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="185"/>
-      <c r="AA40" s="185"/>
-      <c r="AB40" s="185"/>
-      <c r="AC40" s="185"/>
-      <c r="AD40" s="182" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z40" s="186"/>
+      <c r="AA40" s="186"/>
+      <c r="AB40" s="186"/>
+      <c r="AC40" s="186"/>
+      <c r="AD40" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="AE40" s="183"/>
-      <c r="AF40" s="184"/>
+      <c r="AE40" s="184"/>
+      <c r="AF40" s="185"/>
     </row>
     <row r="41" spans="1:32" s="30" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A41" s="199" t="b">
+      <c r="A41" s="200" t="e">
         <f>IF(A40&gt;89,"بريالی",IF(A40&gt;79,"بريالی",IF(A40&gt;69,"بريالی",IF(A40&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
-      </c>
-      <c r="B41" s="200"/>
-      <c r="C41" s="200"/>
-      <c r="D41" s="200"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="210" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B41" s="201"/>
+      <c r="C41" s="201"/>
+      <c r="D41" s="201"/>
+      <c r="E41" s="202"/>
+      <c r="F41" s="211" t="s">
         <v>132</v>
       </c>
-      <c r="G41" s="211"/>
-      <c r="H41" s="212"/>
-      <c r="I41" s="199" t="b">
+      <c r="G41" s="212"/>
+      <c r="H41" s="213"/>
+      <c r="I41" s="200" t="e">
         <f>IF(I40&gt;89,"بريالی",IF(I40&gt;79,"بريالی",IF(I40&gt;69,"بريالی",IF(I40&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="200"/>
-      <c r="K41" s="200"/>
-      <c r="L41" s="200"/>
-      <c r="M41" s="201"/>
-      <c r="N41" s="210" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="201"/>
+      <c r="K41" s="201"/>
+      <c r="L41" s="201"/>
+      <c r="M41" s="202"/>
+      <c r="N41" s="211" t="s">
         <v>132</v>
       </c>
-      <c r="O41" s="211"/>
-      <c r="P41" s="212"/>
-      <c r="Q41" s="199" t="b">
+      <c r="O41" s="212"/>
+      <c r="P41" s="213"/>
+      <c r="Q41" s="200" t="e">
         <f>IF(Q40&gt;89,"بريالی",IF(Q40&gt;79,"بريالی",IF(Q40&gt;69,"بريالی",IF(Q40&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="200"/>
-      <c r="S41" s="200"/>
-      <c r="T41" s="200"/>
-      <c r="U41" s="201"/>
-      <c r="V41" s="210" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R41" s="201"/>
+      <c r="S41" s="201"/>
+      <c r="T41" s="201"/>
+      <c r="U41" s="202"/>
+      <c r="V41" s="211" t="s">
         <v>132</v>
       </c>
-      <c r="W41" s="211"/>
-      <c r="X41" s="212"/>
-      <c r="Y41" s="199" t="b">
+      <c r="W41" s="212"/>
+      <c r="X41" s="213"/>
+      <c r="Y41" s="200" t="e">
         <f>IF(Y40&gt;89,"بريالی",IF(Y40&gt;79,"بريالی",IF(Y40&gt;69,"بريالی",IF(Y40&gt;54,"عدم کرېډيټ"))))</f>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="200"/>
-      <c r="AA41" s="200"/>
-      <c r="AB41" s="200"/>
-      <c r="AC41" s="201"/>
-      <c r="AD41" s="210" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z41" s="201"/>
+      <c r="AA41" s="201"/>
+      <c r="AB41" s="201"/>
+      <c r="AC41" s="202"/>
+      <c r="AD41" s="211" t="s">
         <v>132</v>
       </c>
-      <c r="AE41" s="211"/>
-      <c r="AF41" s="212"/>
+      <c r="AE41" s="212"/>
+      <c r="AF41" s="213"/>
     </row>
     <row r="42" spans="1:32" s="30" customFormat="1" ht="21" customHeight="1">
-      <c r="A42" s="193">
+      <c r="A42" s="194" t="e">
         <f>Graduation!A45</f>
-        <v>0</v>
-      </c>
-      <c r="B42" s="194"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="194"/>
-      <c r="H42" s="195"/>
-      <c r="I42" s="196" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B42" s="195"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="195"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="197" t="s">
         <v>151</v>
       </c>
-      <c r="J42" s="197"/>
-      <c r="K42" s="197"/>
-      <c r="L42" s="197"/>
-      <c r="M42" s="197"/>
-      <c r="N42" s="197"/>
-      <c r="O42" s="197"/>
-      <c r="P42" s="198"/>
-      <c r="Q42" s="207">
+      <c r="J42" s="198"/>
+      <c r="K42" s="198"/>
+      <c r="L42" s="198"/>
+      <c r="M42" s="198"/>
+      <c r="N42" s="198"/>
+      <c r="O42" s="198"/>
+      <c r="P42" s="199"/>
+      <c r="Q42" s="208">
         <f>Graduation!S45</f>
-        <v>360</v>
-      </c>
-      <c r="R42" s="208"/>
-      <c r="S42" s="208"/>
-      <c r="T42" s="208"/>
-      <c r="U42" s="208"/>
-      <c r="V42" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="R42" s="209"/>
+      <c r="S42" s="209"/>
+      <c r="T42" s="209"/>
+      <c r="U42" s="209"/>
+      <c r="V42" s="210" t="s">
         <v>162</v>
       </c>
-      <c r="W42" s="209"/>
-      <c r="X42" s="209"/>
-      <c r="Y42" s="207">
+      <c r="W42" s="210"/>
+      <c r="X42" s="210"/>
+      <c r="Y42" s="208">
         <f>Graduation!AA45</f>
         <v>0</v>
       </c>
-      <c r="Z42" s="208"/>
-      <c r="AA42" s="208"/>
-      <c r="AB42" s="208"/>
-      <c r="AC42" s="208"/>
-      <c r="AD42" s="206" t="s">
+      <c r="Z42" s="209"/>
+      <c r="AA42" s="209"/>
+      <c r="AB42" s="209"/>
+      <c r="AC42" s="209"/>
+      <c r="AD42" s="207" t="s">
         <v>130</v>
       </c>
-      <c r="AE42" s="206"/>
-      <c r="AF42" s="206"/>
+      <c r="AE42" s="207"/>
+      <c r="AF42" s="207"/>
     </row>
     <row r="43" spans="1:32" s="30" customFormat="1" ht="15.75">
-      <c r="A43" s="213" t="s">
+      <c r="A43" s="214" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="213"/>
-      <c r="C43" s="213"/>
-      <c r="D43" s="213"/>
-      <c r="E43" s="213"/>
-      <c r="F43" s="213"/>
-      <c r="G43" s="213"/>
-      <c r="H43" s="213"/>
-      <c r="I43" s="213"/>
-      <c r="J43" s="213"/>
-      <c r="K43" s="213"/>
-      <c r="L43" s="213"/>
-      <c r="M43" s="213"/>
-      <c r="N43" s="213"/>
-      <c r="O43" s="213"/>
-      <c r="P43" s="213"/>
-      <c r="Q43" s="213"/>
-      <c r="R43" s="213"/>
-      <c r="S43" s="213"/>
-      <c r="T43" s="213"/>
-      <c r="U43" s="213"/>
-      <c r="V43" s="213"/>
-      <c r="W43" s="213"/>
-      <c r="X43" s="213"/>
-      <c r="Y43" s="213"/>
-      <c r="Z43" s="213"/>
-      <c r="AA43" s="213"/>
-      <c r="AB43" s="213"/>
-      <c r="AC43" s="213"/>
-      <c r="AD43" s="213"/>
-      <c r="AE43" s="213"/>
-      <c r="AF43" s="213"/>
+      <c r="B43" s="214"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="214"/>
+      <c r="F43" s="214"/>
+      <c r="G43" s="214"/>
+      <c r="H43" s="214"/>
+      <c r="I43" s="214"/>
+      <c r="J43" s="214"/>
+      <c r="K43" s="214"/>
+      <c r="L43" s="214"/>
+      <c r="M43" s="214"/>
+      <c r="N43" s="214"/>
+      <c r="O43" s="214"/>
+      <c r="P43" s="214"/>
+      <c r="Q43" s="214"/>
+      <c r="R43" s="214"/>
+      <c r="S43" s="214"/>
+      <c r="T43" s="214"/>
+      <c r="U43" s="214"/>
+      <c r="V43" s="214"/>
+      <c r="W43" s="214"/>
+      <c r="X43" s="214"/>
+      <c r="Y43" s="214"/>
+      <c r="Z43" s="214"/>
+      <c r="AA43" s="214"/>
+      <c r="AB43" s="214"/>
+      <c r="AC43" s="214"/>
+      <c r="AD43" s="214"/>
+      <c r="AE43" s="214"/>
+      <c r="AF43" s="214"/>
     </row>
     <row r="44" spans="1:32" s="30" customFormat="1">
-      <c r="A44" s="204" t="s">
+      <c r="A44" s="205" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="204"/>
-      <c r="C44" s="204"/>
-      <c r="D44" s="204"/>
-      <c r="E44" s="204"/>
-      <c r="F44" s="204"/>
-      <c r="G44" s="204"/>
-      <c r="H44" s="204"/>
-      <c r="I44" s="204" t="s">
+      <c r="B44" s="205"/>
+      <c r="C44" s="205"/>
+      <c r="D44" s="205"/>
+      <c r="E44" s="205"/>
+      <c r="F44" s="205"/>
+      <c r="G44" s="205"/>
+      <c r="H44" s="205"/>
+      <c r="I44" s="205" t="s">
         <v>137</v>
       </c>
-      <c r="J44" s="204"/>
-      <c r="K44" s="204"/>
-      <c r="L44" s="204"/>
-      <c r="M44" s="204"/>
-      <c r="N44" s="204"/>
-      <c r="O44" s="204"/>
-      <c r="P44" s="204"/>
-      <c r="Q44" s="204" t="s">
+      <c r="J44" s="205"/>
+      <c r="K44" s="205"/>
+      <c r="L44" s="205"/>
+      <c r="M44" s="205"/>
+      <c r="N44" s="205"/>
+      <c r="O44" s="205"/>
+      <c r="P44" s="205"/>
+      <c r="Q44" s="205" t="s">
         <v>159</v>
       </c>
-      <c r="R44" s="204"/>
-      <c r="S44" s="204"/>
-      <c r="T44" s="204"/>
-      <c r="U44" s="204"/>
-      <c r="V44" s="204"/>
-      <c r="W44" s="204"/>
-      <c r="X44" s="204"/>
-      <c r="Y44" s="204" t="s">
+      <c r="R44" s="205"/>
+      <c r="S44" s="205"/>
+      <c r="T44" s="205"/>
+      <c r="U44" s="205"/>
+      <c r="V44" s="205"/>
+      <c r="W44" s="205"/>
+      <c r="X44" s="205"/>
+      <c r="Y44" s="205" t="s">
         <v>139</v>
       </c>
-      <c r="Z44" s="204"/>
-      <c r="AA44" s="204"/>
-      <c r="AB44" s="204"/>
-      <c r="AC44" s="204"/>
-      <c r="AD44" s="204"/>
-      <c r="AE44" s="204"/>
-      <c r="AF44" s="204"/>
+      <c r="Z44" s="205"/>
+      <c r="AA44" s="205"/>
+      <c r="AB44" s="205"/>
+      <c r="AC44" s="205"/>
+      <c r="AD44" s="205"/>
+      <c r="AE44" s="205"/>
+      <c r="AF44" s="205"/>
     </row>
     <row r="45" spans="1:32" s="30" customFormat="1">
-      <c r="A45" s="204"/>
-      <c r="B45" s="204"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="204"/>
-      <c r="F45" s="204"/>
-      <c r="G45" s="204"/>
-      <c r="H45" s="204"/>
-      <c r="I45" s="204" t="s">
+      <c r="A45" s="205"/>
+      <c r="B45" s="205"/>
+      <c r="C45" s="205"/>
+      <c r="D45" s="205"/>
+      <c r="E45" s="205"/>
+      <c r="F45" s="205"/>
+      <c r="G45" s="205"/>
+      <c r="H45" s="205"/>
+      <c r="I45" s="205" t="s">
         <v>140</v>
       </c>
-      <c r="J45" s="204"/>
-      <c r="K45" s="204"/>
-      <c r="L45" s="204"/>
-      <c r="M45" s="204"/>
-      <c r="N45" s="204"/>
-      <c r="O45" s="204"/>
-      <c r="P45" s="204"/>
-      <c r="Q45" s="204" t="s">
+      <c r="J45" s="205"/>
+      <c r="K45" s="205"/>
+      <c r="L45" s="205"/>
+      <c r="M45" s="205"/>
+      <c r="N45" s="205"/>
+      <c r="O45" s="205"/>
+      <c r="P45" s="205"/>
+      <c r="Q45" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="R45" s="204"/>
-      <c r="S45" s="204"/>
-      <c r="T45" s="204"/>
-      <c r="U45" s="204"/>
-      <c r="V45" s="204"/>
-      <c r="W45" s="204"/>
-      <c r="X45" s="204"/>
-      <c r="Y45" s="204" t="s">
+      <c r="R45" s="205"/>
+      <c r="S45" s="205"/>
+      <c r="T45" s="205"/>
+      <c r="U45" s="205"/>
+      <c r="V45" s="205"/>
+      <c r="W45" s="205"/>
+      <c r="X45" s="205"/>
+      <c r="Y45" s="205" t="s">
         <v>143</v>
       </c>
-      <c r="Z45" s="204"/>
-      <c r="AA45" s="204"/>
-      <c r="AB45" s="204"/>
-      <c r="AC45" s="204"/>
-      <c r="AD45" s="204"/>
-      <c r="AE45" s="204"/>
-      <c r="AF45" s="204"/>
+      <c r="Z45" s="205"/>
+      <c r="AA45" s="205"/>
+      <c r="AB45" s="205"/>
+      <c r="AC45" s="205"/>
+      <c r="AD45" s="205"/>
+      <c r="AE45" s="205"/>
+      <c r="AF45" s="205"/>
     </row>
     <row r="46" spans="1:32" s="30" customFormat="1" ht="15.75">
-      <c r="A46" s="205" t="s">
+      <c r="A46" s="206" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="205"/>
-      <c r="C46" s="205"/>
-      <c r="D46" s="205"/>
-      <c r="E46" s="205"/>
-      <c r="F46" s="205"/>
-      <c r="G46" s="205"/>
-      <c r="H46" s="205"/>
-      <c r="I46" s="205" t="s">
+      <c r="B46" s="206"/>
+      <c r="C46" s="206"/>
+      <c r="D46" s="206"/>
+      <c r="E46" s="206"/>
+      <c r="F46" s="206"/>
+      <c r="G46" s="206"/>
+      <c r="H46" s="206"/>
+      <c r="I46" s="206" t="s">
         <v>160</v>
       </c>
-      <c r="J46" s="205"/>
-      <c r="K46" s="205"/>
-      <c r="L46" s="205"/>
-      <c r="M46" s="205"/>
-      <c r="N46" s="205"/>
-      <c r="O46" s="205"/>
-      <c r="P46" s="205"/>
-      <c r="Q46" s="205" t="s">
+      <c r="J46" s="206"/>
+      <c r="K46" s="206"/>
+      <c r="L46" s="206"/>
+      <c r="M46" s="206"/>
+      <c r="N46" s="206"/>
+      <c r="O46" s="206"/>
+      <c r="P46" s="206"/>
+      <c r="Q46" s="206" t="s">
         <v>160</v>
       </c>
-      <c r="R46" s="205"/>
-      <c r="S46" s="205"/>
-      <c r="T46" s="205"/>
-      <c r="U46" s="205"/>
-      <c r="V46" s="205"/>
-      <c r="W46" s="205"/>
-      <c r="X46" s="205"/>
-      <c r="Y46" s="205" t="s">
+      <c r="R46" s="206"/>
+      <c r="S46" s="206"/>
+      <c r="T46" s="206"/>
+      <c r="U46" s="206"/>
+      <c r="V46" s="206"/>
+      <c r="W46" s="206"/>
+      <c r="X46" s="206"/>
+      <c r="Y46" s="206" t="s">
         <v>196</v>
       </c>
-      <c r="Z46" s="205"/>
-      <c r="AA46" s="205"/>
-      <c r="AB46" s="205"/>
-      <c r="AC46" s="205"/>
-      <c r="AD46" s="205"/>
-      <c r="AE46" s="205"/>
-      <c r="AF46" s="205"/>
+      <c r="Z46" s="206"/>
+      <c r="AA46" s="206"/>
+      <c r="AB46" s="206"/>
+      <c r="AC46" s="206"/>
+      <c r="AD46" s="206"/>
+      <c r="AE46" s="206"/>
+      <c r="AF46" s="206"/>
     </row>
     <row r="47" spans="1:32" s="30" customFormat="1">
-      <c r="A47" s="202" t="s">
+      <c r="A47" s="203" t="s">
         <v>200</v>
       </c>
-      <c r="B47" s="202"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="202"/>
-      <c r="E47" s="202"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="202"/>
-      <c r="H47" s="202"/>
-      <c r="I47" s="202" t="s">
+      <c r="B47" s="203"/>
+      <c r="C47" s="203"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="203"/>
+      <c r="H47" s="203"/>
+      <c r="I47" s="203" t="s">
         <v>200</v>
       </c>
-      <c r="J47" s="202"/>
-      <c r="K47" s="202"/>
-      <c r="L47" s="202"/>
-      <c r="M47" s="202"/>
-      <c r="N47" s="202"/>
-      <c r="O47" s="202"/>
-      <c r="P47" s="202"/>
-      <c r="Q47" s="202" t="s">
+      <c r="J47" s="203"/>
+      <c r="K47" s="203"/>
+      <c r="L47" s="203"/>
+      <c r="M47" s="203"/>
+      <c r="N47" s="203"/>
+      <c r="O47" s="203"/>
+      <c r="P47" s="203"/>
+      <c r="Q47" s="203" t="s">
         <v>200</v>
       </c>
-      <c r="R47" s="202"/>
-      <c r="S47" s="202"/>
-      <c r="T47" s="202"/>
-      <c r="U47" s="202"/>
-      <c r="V47" s="202"/>
-      <c r="W47" s="202"/>
-      <c r="X47" s="202"/>
-      <c r="Y47" s="202" t="s">
+      <c r="R47" s="203"/>
+      <c r="S47" s="203"/>
+      <c r="T47" s="203"/>
+      <c r="U47" s="203"/>
+      <c r="V47" s="203"/>
+      <c r="W47" s="203"/>
+      <c r="X47" s="203"/>
+      <c r="Y47" s="203" t="s">
         <v>200</v>
       </c>
-      <c r="Z47" s="202"/>
-      <c r="AA47" s="202"/>
-      <c r="AB47" s="202"/>
-      <c r="AC47" s="202"/>
-      <c r="AD47" s="202"/>
-      <c r="AE47" s="202"/>
-      <c r="AF47" s="202"/>
+      <c r="Z47" s="203"/>
+      <c r="AA47" s="203"/>
+      <c r="AB47" s="203"/>
+      <c r="AC47" s="203"/>
+      <c r="AD47" s="203"/>
+      <c r="AE47" s="203"/>
+      <c r="AF47" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="132">
